--- a/2 четверть_7_Программист_Контейнеризация.xlsx
+++ b/2 четверть_7_Программист_Контейнеризация.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB5FCA0-69B9-4223-B977-1986B591DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36B247C-C22C-4A89-8637-B50A6283B0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="676">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -1585,11 +1585,6 @@
     <t>Инструкции EXPOSE и VOLUME</t>
   </si>
   <si>
-    <t>Инструкция VOLUME
-Указывает место в локальной системе, которое контейнер будет
-использовать для хранения данных</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -1808,129 +1803,7 @@
     <t>Урок 4 часть 2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">FROM ubuntu:22.10 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//указываем базовый образ - ОС</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-RUN apt-get update </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//указываем команды для правильной установки приложения</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-RUN apt-get install -y cowsay </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//указываем установку нужного нам приложения</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-RUN ln -s /usr/games/cowsay /usr/bin/cowsay </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//создаем ссылку для запуска приложения в виде команды</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-CMD ["cowsay"] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//указываем параметры запуска докер</t>
-    </r>
-  </si>
-  <si>
-    <t>docker build -t cowsaytest .</t>
-  </si>
-  <si>
-    <t>nano cowsaytest</t>
-  </si>
-  <si>
     <t>Создаем образ</t>
-  </si>
-  <si>
-    <t>. - указывает на то, что dockerfile, с которого будет создан образ, расположен в текущей дирктории</t>
   </si>
   <si>
     <t>docker run -it cowsaytest bash</t>
@@ -4239,190 +4112,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>создастся контейнер с ubuntu, который сможет выполнять один скрипт при запуске  -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bash bash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (bash, так как в dockerfile образа убунту указана CMD bash)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Смысл: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">создастся контейнер с ubuntu, который сможет выполнять один скрипт при запуске  - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (bash, так как в dockerfile образа убунту указана CMD bash)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Смысл: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">создастся контейнер с ubuntu, который сможет выполнять один скрипт при запуске  - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bash date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (bash, так как в dockerfile образа убунту указана CMD bash)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Смысл: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">создастся контейнер с ubuntu, который сможет выполнять один скрипт при запуске  - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bash sleep 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (bash, так как в dockerfile образа убунту указана CMD bash)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Смысл: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">создастся контейнер с ubuntu, который сможет выполнять один скрипт при запуске  - </t>
     </r>
     <r>
@@ -4882,9 +4571,6 @@
   </si>
   <si>
     <t>Узнаем Ip контейнера с сервером</t>
-  </si>
-  <si>
-    <t>Скачиваем и запускаем mysql контейнер с подключением к контейнеру с сервером</t>
   </si>
   <si>
     <r>
@@ -5056,81 +4742,6 @@
       <t>&gt; 
 -p 8081:80 
 phpmyadmin/phpmyadmin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">создаем контейнер с php-myadmin
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>--link name:alias</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — имя контейнера
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alias</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — имя, под которым этот контейнер будет известен запускаемому.
-</t>
     </r>
   </si>
   <si>
@@ -5172,17 +4783,3945 @@
       <t>смысл php_myadmin лишь в том, что соединиться по правильном Ip нужной базы данных, передать ей токены авторизации и осуществить вывод переданных ей команд mysql (или любой другой бд)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Смысл: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>создастся контейнер с ubuntu, который сможет выполнять один скрипт при запуске  -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bash (передает команду </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bash</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (bash, так как в dockerfile образа убунту указана CMD bash)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Смысл: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">создастся контейнер с ubuntu, который сможет выполнять один скрипт при запуске  - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bash (передает </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>пустую команду</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (bash, так как в dockerfile образа убунту указана CMD bash)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Смысл: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">создастся контейнер с ubuntu, который сможет выполнять один скрипт при запуске  - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bash (передает команду </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (bash, так как в dockerfile образа убунту указана CMD bash)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Смысл: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">создастся контейнер с ubuntu, который сможет выполнять один скрипт при запуске  - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bash (передает команду </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sleep 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (bash, так как в dockerfile образа убунту указана CMD bash)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>docker build -t &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>имя будущего образа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>путь до Dockerfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nano </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dockerfile</t>
+    </r>
+  </si>
+  <si>
+    <t>. - указывает на то, что dockerfile, с которого будет создан образ, расположен в текущей дирктории
+-t - (tag) указываем название будущего образа</t>
+  </si>
+  <si>
+    <t>Экономим пространство за счет похудения докер образа
+RUN rm -rf /var/lib/apt/lists/*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важное в docker run! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker run &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>команда для bash - при следующих стартах контейнера (невозможно указывать аргументы docker start) навсегда будет исполняться - может быть пустой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Создавая докерфайл для билда, требуется использовать только одно выделенное имя - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dockerfile
+Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMD ["cowsay"] - здесь записывается команда, которая при будущих исполнениях 
+docker run &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>команда для bash - если пустая, то будет использована команда происанная в Dockerfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; будет помещаться в качестве постоянной команды при старте контейнера, если разработчик не указал свою команду</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>имя образа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; - здесь вместо имени образа из dockerhub возможно указать имя образа скачанного или своего в основной ОС (можно посмотреть со списком скачанных образов командой docker images)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FROM ubuntu:22.10 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//указываем базовый образ - ОС</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+RUN apt-get update </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//указываем команды для правильной установки приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+RUN apt-get install -y cowsay </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//указываем установку нужного нам приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+RUN ln -s /usr/games/cowsay /usr/bin/cowsay </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//создаем ссылку для запуска приложения в виде команды</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CMD ["cowsay"] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//указываем параметры запуска докер</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (точка входа - может быть заменена на ENTRYPOINT)</t>
+    </r>
+  </si>
+  <si>
+    <t>Создание образа от удаленных dockerfile</t>
+  </si>
+  <si>
+    <t>docker build github.com/creack/docker-firefox</t>
+  </si>
+  <si>
+    <t>docker build -f ctx/Dockerfile http://server/ctx.tar.gz</t>
+  </si>
+  <si>
+    <t>This sends the URL http://server/ctx.tar.gz to the Docker daemon, which downloads and extracts the referenced tarball. The -f ctx/Dockerfile parameter specifies a path inside ctx.tar.gz to the Dockerfile that is used to build the image. Any ADD commands in that Dockerfile that refers to local paths must be relative to the root of the contents inside ctx.tar.gz. In the example above, the tarball contains a directory ctx/, so the ADD ctx/container.cfg / operation works as expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will clone the GitHub repository and use the cloned repository as context. The Dockerfile at the root of the repository is used as Dockerfile. You can specify an arbitrary Git repository by using the git:// or git@ scheme.
+</t>
+  </si>
+  <si>
+    <t>$ cd ~/Johnny
+$ mkdir DockerMySQL
+$ cd DockerMySQL
+$ vim Dockerfile</t>
+  </si>
+  <si>
+    <t>Подготовка директории для dockerfile</t>
+  </si>
+  <si>
+    <t>Создание Dockerfile</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+В ENV указаны переменные среды, которые являются родными для запускаемого нами приложения. В данном примере для mysql родным является переменная MYSQL_ROOT_PASSWORD, в которой указан пароль, который систем будет использовать для сравнения с паролем вводимым пользователями
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В ARG указываются переменные для билда образа</t>
+    </r>
+  </si>
+  <si>
+    <t>Создание образа</t>
+  </si>
+  <si>
+    <t>docker build -t mysqlimage .</t>
+  </si>
+  <si>
+    <t>Запуск контейнера из образа</t>
+  </si>
+  <si>
+    <t>docker run -d -v &lt;директориия на основной ОС&gt;:/var/lib/mysql 
+mysql mysqlimage</t>
+  </si>
+  <si>
+    <t>#Create MySQL Image for JSP Tutorial Application
+FROM mysql
+ENV MYSQL_ROOT_PASSWORD="qwerty"
+COPY ./hw3 /var/lib/mysql
+EXPOSE 3306</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">создаем контейнер с php-myadmin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--link name:alias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — имя контейнера
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — имя, под которым этот контейнер будет известен запускаемому.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Иногда этот alias очень важно оставлять с тем обозначением, которое для него придумал создать образа, так как данное обозначение хотя и можно менять, однако на это название могут ссылаться компоненты контейнера (если использовать свое название, то могут возникнуть ошибки)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Скачиваем и запускаем mysql контейнер с подключением к контейнеру с сервером
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Шаг 4
+Разбор команды на две части:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+Запуск контейнера</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+docker run -it --rm mysql mysql
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+Команда mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-h &lt;ip контейнера с сервером&gt; -u root -p </t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка доступности сервера базы данных при помощи my-phpadmin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Так как в dockerfile мы прописали ENV , то при запуске контейнера с сервером нам не понадобилось передать параметр -e</t>
+    </r>
+  </si>
+  <si>
+    <t>Finally, I have a gut feeling that specifying VOLUME in the Dockerfile is not just uncommon, but it's probably a best practice to never use VOLUME. For two reasons. The first reason we have already identified: We can not specify the host path - which is a good thing because Dockerfiles should be very agnostic to the specifics of a host machine. But the second reason is people might forget to use the --rm option when running the container. One might remember to remove the container but forget to remove the volume. Plus, even with the best of human memory, it might be a daunting task to figure out which of all anonymous volumes are safe to remove.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+VOLUMES /var/lib/mysql #указываем путь в директории контейнера, который автоматически откроем при запуске образа. На основной ОС в директории /var/lib/docker/volumes создастся папка, где будет храниться все содержимое указанной директории контейнера</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создание </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dockerfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> от образа </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Смотри информацию про Volume выше. Возможно также добавить инструкции для dockerfile, которые пробрасывают Volume в основную ОС</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 5 часть 1</t>
+  </si>
+  <si>
+    <t>Docker Compose, Docker Swarm</t>
+  </si>
+  <si>
+    <t>Docker Compose</t>
+  </si>
+  <si>
+    <t>Docker Swarm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вертикальное масштабирование возможностей контейнеризации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+То есть позволяет запускать несколько контейнеров с одинаковым функционалом, расположенные в разных географических точках с целью большей доступности контента, предоставляемого в этих контейнерах, а также увеличения стабильности (если один контейнер упадет или не будет справляться с нагрузкой, то трафик будет перенаправлен на соседей)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Горизонтальное масштабирование возможностей контейнеризации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+То есть позволяет запускать несколько контейнеров с различным функционалом, объединенных в одну сеть, решающих одну большую общую задачу.
+1 Позволяет развертывать сложные проекты
+2 Позволяет исключить множественные ключи при использовании docker run
+3 Позволяет развертывать контейнеры полностью замещая docker run
+4 Позволяет хранить весь скрипт команд в yaml файле
+5 Позволяет не зависеть от devops в части переноса веб-ресурса на новые серверы (в частности случае, когда devops запустивший текущую версию веб-ресурса давно ушел из компании, а процесс deploy веб-ресурса давно забыт или утерян) - у docker compose все скрипты хранятся в yaml файле</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 5 часть 2</t>
+  </si>
+  <si>
+    <t>Пример Docker</t>
+  </si>
+  <si>
+    <t>docker run --name some-mysql -e MYSQL_ROOT_PASSWORD=test123 -d mysql:8.0.31</t>
+  </si>
+  <si>
+    <t>docker run --name myphpadmin --link some-mysql:db -p 8081:80 phpmyadmin/phpmyadmin</t>
+  </si>
+  <si>
+    <t>Запускаем бд и phpmyadmin</t>
+  </si>
+  <si>
+    <t>Пример Docker Compose</t>
+  </si>
+  <si>
+    <t>Yaml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Язык разметки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 Понятный человеу код
+2 Минималистичеый синтаксис
+3 Заточен под работу с данным
+4 Встроенный стиль, похожий на JSON
+5 Поддерживает комментарии
+6 Поддерживает строки без кавычек
+7 Считается чище, чем JSON
+8 Дополнительные возможнсти</t>
+    </r>
+  </si>
+  <si>
+    <t>YAML еще один язык разметки
+не еще один язык разметки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YAML - это язык для сериализации данных. Позволяет хранить сложноорганизованные данные в компактном и читаемом формате.
+YAML - это язык для хранения информации в формате понятном человеку
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Данный язык похож на xml, json, но использует более </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>минималистичный синтаксис с теми же возможностями</t>
+    </r>
+  </si>
+  <si>
+    <t>Чаще всего используется для создания протокол автоматизации</t>
+  </si>
+  <si>
+    <t>00 15 00</t>
+  </si>
+  <si>
+    <t>nano example.yaml</t>
+  </si>
+  <si>
+    <t>Создание переменных и присваивание им значений</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">first_name: Vladlen
+last_name: Melnik
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - переменная 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - знак присваивания
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Melnik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - переменная 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - знак присваивания
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Melnik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - значение</t>
+    </r>
+  </si>
+  <si>
+    <t>00 16 00</t>
+  </si>
+  <si>
+    <t>Вложенность переменных</t>
+  </si>
+  <si>
+    <t>&lt;&gt; - количество отсутступов</t>
+  </si>
+  <si>
+    <t>animals:
+&lt;&gt;cat:
+&lt;&gt;&lt;&gt;name: Simba
+&lt;&gt;&lt;&gt;age: 1-year</t>
+  </si>
+  <si>
+    <t>version - версия docker compose, используемая для обработки конфигурационного файла .yaml</t>
+  </si>
+  <si>
+    <t>Урок 5 часть 3</t>
+  </si>
+  <si>
+    <t>Оркестрация контейнеров - это централизованное и эффективное управление, а также мониторинг контейнеров</t>
+  </si>
+  <si>
+    <t>Развертывание</t>
+  </si>
+  <si>
+    <t>Deploy проектов при помощи манифестов (yaml файлы), которые будут содержать всю информацию о контейнерах, которые необходимо развернуть</t>
+  </si>
+  <si>
+    <t>Масштабирование</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Возможность увеличения количетва контейнеров, запущенных простых способом. 
+При увеличении трафика мы можем легко масштабировать контейнер столько раз, сколько нам нужно для удовлетворения входящих запросов.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В данном аспекте также важную роль играет управление сетями. Успешное управление сетями позволяет правильно связывать контейнеры по ip, а также балансировать трафик между ними</t>
+    </r>
+  </si>
+  <si>
+    <t>Надежность</t>
+  </si>
+  <si>
+    <t>Оркестратор должен выдерживать работоспособность нашего приложения. Сюда входит автоматическое удаление мусора из контейнеров, остановка избыточных контейнеров, подъем новых контейнеров</t>
+  </si>
+  <si>
+    <t>Оркестратор</t>
+  </si>
+  <si>
+    <t>00 26 00</t>
+  </si>
+  <si>
+    <t>docker-compose build</t>
+  </si>
+  <si>
+    <t>позволяет собрать сервисы из конфигурационного файла</t>
+  </si>
+  <si>
+    <t>docker-compose up</t>
+  </si>
+  <si>
+    <t>аналог: docker run -d &lt;image&gt;</t>
+  </si>
+  <si>
+    <t>docker-compose start</t>
+  </si>
+  <si>
+    <t>позволяет запустить любые ранее остановленные сервисы (контейнеры) в соответствии с конфигурациями этих сервисов в .yaml файле</t>
+  </si>
+  <si>
+    <t>docker-compose down</t>
+  </si>
+  <si>
+    <t>остановить проект и удаляет все сущности (контейнеры)</t>
+  </si>
+  <si>
+    <t>docker-compose stop</t>
+  </si>
+  <si>
+    <t>остановить проект (но не удаляет сущности - контейнеры)</t>
+  </si>
+  <si>
+    <t>docker-compose logs -f &lt;service_name&gt;</t>
+  </si>
+  <si>
+    <t>запустить сбор логов запущенного сервиса (контейнера)</t>
+  </si>
+  <si>
+    <t>docker-compose exec</t>
+  </si>
+  <si>
+    <t>позволяет выполнить команду в сервисе, не заходя внутрь контейнера</t>
+  </si>
+  <si>
+    <t>docker-compose images</t>
+  </si>
+  <si>
+    <t>позвляет вывести список образов, которые будут доступны в нашем конфигурационном файле .yaml</t>
+  </si>
+  <si>
+    <t>Команды docker-compose</t>
+  </si>
+  <si>
+    <t>restart</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Позволяет определить политику перезапуска контейнера
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 restart: no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - не перезапускать контейнер автоматически
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 restart: on failure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - при невозможности перезапуску, контейнер будет снова перезапущен вплоть до того количества попыток, которое будет указано в параметре failure
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 restart: always</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - всегда перезапускает контейнер, если он был остановлен (нужно быть аккуратным, так как с данным параметром может быть зацикленный перезапуск контейнера с различными проблемами)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 restart: unless stopped </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- всегда будет перезапускать контейнер (поход на always, за исключением того, что если контейнер был остановлен вручную, то он не будет перезапущен docker-compose)</t>
+    </r>
+  </si>
+  <si>
+    <t>Теория</t>
+  </si>
+  <si>
+    <t>`-d - запуск контейнеров в режиме демона (в фоновом режиме), для того чтобы после запуска контейнеров, docker вернул нам командную строку bash в основной ОС</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Запустить контейнеры в соответствии с конфигурацией в .yaml файле.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Первым же этапом данного процесса является создание сети для того, чтобы не использовать сеть по умолчанию
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creating network "root_default" with the default driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Если применить команду </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker container inspect &lt;название контейнера&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> к каждому контейнеру, запущенному docker compose, то можно увидеть что все ip адреса этих контейнеров будут расположены в одной под-сети (их Ip будут иметь значения друг за другом)</t>
+    </r>
+  </si>
+  <si>
+    <t>docker-compose logs</t>
+  </si>
+  <si>
+    <t>посмотреть логи всех контейнеров</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Смысл! docker-compose позволяет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, используя команду docker-compose, осуществлять управление не одним контейнером, а сразу же группой контейнеров, которые были запущены горизонтально для работы одного большого приложения на одном сервере (одной ноде)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Docker Compose: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yaml файл</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Docker Compose:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> команды</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 5 часть 4</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Node (нода) - это наш сервер</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с установленным на нем Docker. По сути, нодой могут быть как физические сервера, так и виртуальные машины</t>
+    </r>
+  </si>
+  <si>
+    <t>Компоненты docker swarm</t>
+  </si>
+  <si>
+    <t>Компоненты веб-приложения</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - это набор сервисов, которые могут быть связаны между собой логически
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сервис</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - это составляющая стэка
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Task (задача) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- непосредственно созданный контейнер
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Разные части (компоненты) больших приложенией могут быть запущены на разных узлах (nodes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">У docker swarm есть два типа узлов (node)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manager node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - управляющий сервер, который способен управлять нашим кластером (определенным количеством worker node, на которых запущены наши сервера с приложениями). То есть он способен добавлять или удалять сущности (контейнеры) нод (серверы) кластера (группа серверов), а также использовать свои собственные ресурсы для создания worker контейнеров на своей ОС.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Worker node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - серверы, которые используются лишь для хранения контейнеров, запущенных manager node. Управлять такими контейнерами (запущенными manager node) строго не рекомендуется
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Делегация прав</t>
+  </si>
+  <si>
+    <t>Критерии при формировании и выборе manager nodes
+1) manager node должна по возможности быть изолированной от внешнего взлома
+2) manager node должна иметь по крайней мере один дублик, чтобы при падении у нас имелась вторая управляющая нода и контроль за кластером не был потерян</t>
+  </si>
+  <si>
+    <t>00 45 00</t>
+  </si>
+  <si>
+    <t>Команды docker swarm</t>
+  </si>
+  <si>
+    <t>docker swarm init</t>
+  </si>
+  <si>
+    <t>показать все имеющиеся ноды (manager и worker) и контейнеры в них</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>запуск swarm.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Таким образом мы указываем docker swarm, что ОС на которой отдана эта команда является manager node.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Результатом данной команды будет команды,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> которую можно будет скпировать на другие ноды, чтобы соединить их к manager node в качестве worker</t>
+    </r>
+  </si>
+  <si>
+    <t>docker node ls</t>
+  </si>
+  <si>
+    <t>использовать на manager node</t>
+  </si>
+  <si>
+    <t>docker swarm leave</t>
+  </si>
+  <si>
+    <t>исключить worker node из swarm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">удалить их списка manager node остановленную worker node </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Так как если оставить worker node в списке manager node, то могут быть конфликты в будущем, если позднее снова присоединять данную worker node под тем же названием</t>
+    </r>
+  </si>
+  <si>
+    <t>00 47 00</t>
+  </si>
+  <si>
+    <t>установить статус manager node на одной из worker node</t>
+  </si>
+  <si>
+    <t>docker node --help</t>
+  </si>
+  <si>
+    <t>вывести список команд docker swarm</t>
+  </si>
+  <si>
+    <t>Урок 5 часть 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vxlan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- при использовании этого типа сетей, у нас не просто происходит создание Overlay-сети. В этом случае происходит инкапсуляция пакетов 2 слоя модели OSI в четвертый</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - этот тип сети используется в ДС по умолчанию при создании кластера. Она отвечает за связи, которые устанавливаются между контейнерами и внешним миром</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Overlay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - создает простую подсеть, которая может быть использована контейнерами на разных хостах swarm-кластера</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker_gwbridge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - эта сеть создается на каждом узле кластера. Она позволяет соединить трафик из контейнеров, находящихся внутри ДС кластера с внешним миром</t>
+    </r>
+  </si>
+  <si>
+    <t>00 50 00</t>
+  </si>
+  <si>
+    <t>00 53 00</t>
+  </si>
+  <si>
+    <t>docker network ls</t>
+  </si>
+  <si>
+    <t>` --attachable - возможность присоединять к сети дополнительные контейнеры</t>
+  </si>
+  <si>
+    <t>docker network create \
+--driver overlay \
+--subnet 4.5.6.0/24 \
+test-network \
+--attachable</t>
+  </si>
+  <si>
+    <t>docker run \
+-d \
+--ip 4.5.6.7 \
+--net test-network \
+--name container-1 \
+busybox sleep 3600</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Docker: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сети и безопасный запуск контейнеров (минимизация доступа в контейнеры/приложения из внешнего интернета)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Это самый правильный способ запуска контейнера, так как в данном случае контейнер изолирован от внешнего интернета. Дополнительный или основной защитой может служить роутер, на котором дополнительно настроена маршрутизация пакетов</t>
+    </r>
+  </si>
+  <si>
+    <t>ll /var/run/docker/netns</t>
+  </si>
+  <si>
+    <t>nsenter --net=/var/run/docker/netns/&lt;ID сети&gt; ip -d link show</t>
+  </si>
+  <si>
+    <t>Безопасность и изоляция сетей</t>
+  </si>
+  <si>
+    <t>Советы при запуске контейнеров</t>
+  </si>
+  <si>
+    <t>Используйте виртуальные сети для различных проектов</t>
+  </si>
+  <si>
+    <t>Совет 1</t>
+  </si>
+  <si>
+    <t>Совет 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сети docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/Преимущества изоляции сетей:
+1 Разные наборы окружений = разные сети. Полная изоляция пакетов данных
+2 Ограничение прослушивания адреса 0.0.0.0
+3 Разграничение сред выполнения</t>
+    </r>
+  </si>
+  <si>
+    <t>Корректно открывать порты, не используя адрес 0.0.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сети docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/Проброс портов (NAT):
+● 8080:80
+● 127.0.0.1:8080:8080</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Другие варианты использования IP-адреса 0.0.0.0 следующее:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В качестве статического маршрута по умолчанию.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Это означает, что в таблице маршрутизации не указан конкретный адрес в качестве следующего перехода на пути пакета к его конечному получателю. Когда маршрут по умолчанию используется с маской подсети 0.0.0.0, он соответствует любому адресу. При использовании с маской 255.255.255.255 она не соответствует ни одному маршруту.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">На серверах. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IP-адрес 0.0.0.0 может использоваться на серверах для обозначения того, что служба может связываться со всеми сетевыми интерфейсами. Он дает команду серверу «прослушивать» и принимать соединения с любого IP-адреса.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В локальной сети. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В локальной сети адрес 0.0.0.0 можно использовать в качестве адреса источника в широковещательной передаче IPv4, которая используется для передачи данных на все устройства в локальной сети.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>На ПК и клиентских устройствах.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Адрес 0.0.0.0 указывает, что клиент не подключен к сети TCP / IP, и устройство может дать себе адрес 0.0.0.0, когда оно находится в автономном режиме.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Легко перепутать IP-адреса 127.0.0.0 и 0.0.0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, поскольку оба принадлежат к классу A специального назначения. Однако, Адрес 127.0.0.0 зарезервирован для кольцевого трафика, то есть для связи внутри одного хоста.</t>
+    </r>
+  </si>
+  <si>
+    <t>Адрес 0.0.0.0</t>
+  </si>
+  <si>
+    <t>Еще один вариант: https://github.com/wangxian/alpine-mysql</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Volumes бесполезна и полезна! Прочитайте описание на английском справа и поймете, что данная инструкция не только бесполезная, но и добавляем лишних файлов в память основной ОС. Однако все же за непонятными хэшами папок, хранящихся в /var/lib/docker/volumes все же располагаются файлы, которые были выведены из контейнеров.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Инструкция VOLUME
+Указывает место в локальной системе, которое контейнер будет
+использовать для хранения данных   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Чтобы вывести список volumes для определенного контейнера рекомендуется использовать команду (stackoverflow):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker inspect -f '{{ .Mounts}}' containerid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Из семинара 5 - 00 30 00 - Есть два подхода к решению проблемы:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>абстрактный</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (есть задача, воображаем наиболее оптимальное решение и решаем), </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>инженерный</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (есть задача, оцениваем имеющиеся ресурсы, организуем имеющиеся ресурсы для достижения максимального результата). То есть инженерный подход (devops) основан не на желаниях, а на возможностях</t>
+    </r>
+  </si>
+  <si>
+    <t>Реплики</t>
+  </si>
+  <si>
+    <t>Самообучение: https://docs.docker.com/engine/swarm/how-swarm-mode-works/services/</t>
+  </si>
+  <si>
+    <t>Своими словами:</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В docker swarm всегда есть Manager. Также в него могут быть добавлены Workers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manager содержит</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1) балансировщик; (2) инициатор контейнеров и tasks (процессы, которые запускаются Manager, как только создается очередной Worker. В рамках этих процессов идет постоянная проверка наличия ресурсов/Worker alive, а также передача запросов на выполненение со стороны Worker); (3) позволяет создавать, останавливать и удалять контейнеры/Workers. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manager не осуществляет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>выполнение запросов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>только направляет их</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на Worker.</t>
+    </r>
+  </si>
+  <si>
+    <t>Балансировщик</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Балансировщик</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - это очень умный алгоритм, который относительно многих условий (загрузка общей системы, загрузка контейнера, здоровье контейнера итп) определяет на какой контейнер в данный момент отправить пользователя, который зашел на Manager</t>
+    </r>
+  </si>
+  <si>
+    <t>Ситуация 1</t>
+  </si>
+  <si>
+    <t>У нас обновился вебсайт. В нашем распоряжении имеется 3 реплики nginx. Требуется перезапутить все реплики. На сайте используется платежная система. Простой сайта может обойтись очень дорого.</t>
+  </si>
+  <si>
+    <t>Оптимальное обновление сайта</t>
+  </si>
+  <si>
+    <t>Шаг 1 убить 2 из 3 реплик.
+Шаг 2 запустить новые 2 реплики.
+Шаг 3 убить 3ю реплику
+Шаг 4 запустить новую 3ю реплику.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно, чтобы последние один или более реплик, которые временно возьмут всю нагрузку на себя, выдерживали весь трафик в момент перезапуска остальных контейнеров. Для этого подбирается правильное количество таких реплик, а также день и время суток с минимальным трафиком на вебсайте.</t>
+    </r>
+  </si>
+  <si>
+    <t>Семинар 00 48 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">использовать на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>worker node</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Добавление label к worker ноде</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+дополнить информацию о выбранной worker ноде. 
+Используется только для личного удобства. Таким образом мы пометим, что данная worker нода будет использоваться для production целей. Также могут быть отдельные ноды для тестирования, разработки и тп</t>
+    </r>
+  </si>
+  <si>
+    <t>docker node rm \
+&lt;хэш остановленной worker node&gt;</t>
+  </si>
+  <si>
+    <t>docker node promote \
+&lt;название worker node&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Worker содержит</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1) одну реплику container (но может и больше чем одну), запущенного Manager. Worker осуществляет выполнение запросов, поступающих от Manager. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Скачивание и запуск nginx в трёх репликах (контейнерах) на выбранной ноде</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Данные три контейнера на ноде будут связаны друг с другом. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Таким образом балансировщик будет балансировать трафик </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>между нодами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а также </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>между репликами</t>
+    </r>
+  </si>
+  <si>
+    <t>docker swarm join \
+--token &lt;token&gt; \
+&lt;ip:port manager&gt;</t>
+  </si>
+  <si>
+    <t>подключить woker ноду к ноде swarm manager</t>
+  </si>
+  <si>
+    <t>manager node</t>
+  </si>
+  <si>
+    <t>docker service update \
+--replicas=2 \
+&lt;хэш worker ноды&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Реплика = контейнер</t>
+    </r>
+  </si>
+  <si>
+    <t>01 06 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Остановка одного из трех реплик (контейнеров)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Остановка происходит путем сокращения контейнеров, обслуживающих manager</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Остановка одного из трех реплик по хэш контейнера</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Остановка происходит путем сокращения контейнеров, обслуживающих manager.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker service create \
+--name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nginx-service-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \
+--label env=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \
+--replicas 3 \
+nginx:alpine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker service scale \
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nginx-service-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>docker node update \
+--label-add env=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \
+&lt;хэш worker ноды&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">manager node
+--name - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>установка имени</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> service (состоит из реплик), который будет работать на выбранной ноде
+--label - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>указание</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на worker ноду, на которой необходимо запустить реплики</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">manager node
+--label - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>установка имени</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на worker ноду</t>
+    </r>
+  </si>
+  <si>
+    <t>Запуск docker swarm на manager node</t>
+  </si>
+  <si>
+    <t>Запуск docker swarm на worker node</t>
+  </si>
+  <si>
+    <t>Присваивание имени worker node</t>
+  </si>
+  <si>
+    <t>Сокращение количества активных реплик</t>
+  </si>
+  <si>
+    <t>Удаление остановленных worker node</t>
+  </si>
+  <si>
+    <t>Остановка node происходит на самих worker node (docker swarm leave)</t>
+  </si>
+  <si>
+    <t>1 docker swarm используется в тех случаях, когда наши сервера расположены более чем в одном регионе.
+2 Worker ноды располагаются каждый в своем регионе (области)
+3 Клиенты отправляют запросы на docker swarm manager, который в свою очередь устанавливает связь с одним из своих worker node, который ближе всего расположен к месту расположения клиента
+4 Для того чтобы нам возможно было запустить кросс-региональный вебресурс, нам необходимо запустить docker swarm с одной manager (минимум) и одной worker нодой (минимум). Далее запустить в worker нодах контейнеры с необходимыми для данных регионов вебсервисами (то есть вебсервисы могут отличать от региона к региону)</t>
+  </si>
+  <si>
+    <t>Заключение - Важно!</t>
+  </si>
+  <si>
+    <t>Запуск реплик (контейнеров) на выбранной worker node</t>
+  </si>
+  <si>
+    <t>Альтернатива - запуск с использование docker compose</t>
+  </si>
+  <si>
+    <t>version: '3.9'
+services:
+  db:
+    image: mariadb:10.10.2
+    restart: always
+    environment:
+      MYSQL_ROOT_PASSWORD: 12345
+  adminer:
+    image: adminer:4.8.1
+    restart: always
+    ports:
+      -6080:8080</t>
+  </si>
+  <si>
+    <t>version: '3.9'
+services:
+  db:
+    image: mariadb:10.10.2
+    restart: always
+    environment:
+      MYSQL_ROOT_PASSWORD: 12345
+    volumes:
+      - /home/user:/var/lib/my_sql
+  adminer:
+    image: adminer:4.8.1
+    restart: always
+    ports:
+      -6080:8080</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 варианта названий docker-compose конфиг файла:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+docker-compose.yml
+docker-compose.yaml
+compose.yml
+compose.yaml
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - версия docker compose, используемая для обработки конфигурационного файла .yaml
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>db</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - название сервиса, который будет запущен (придумываем самостоятельно)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - образ, который будет использовать yaml для запуска контейнера
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно! Вместо image можно указать:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: ./db - таким образом можно указать путь до dockerfile, который будет собран в образ, а далее запущен в контейнер
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - позволяет определить политику перезапуска контейнера
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">environment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- прописываем переменные, которые могут быть прописаны для работа того или иного контейнера (в данном случае пароль от бд)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - приведен пример второго способа записи в .yaml файле
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    volumes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      - /home/user:/var/lib/my_sql
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Мы не пользуемся docker swarm, так как у нас есть всего лишь один сервер в одном регионе. Нам необходимо запустить сайт, на котором будет расположена платежная система. Чтобы обновлять такой сайт, нам необходимо как минимум по две реплики каждого service.</t>
+  </si>
+  <si>
+    <t>Создаем yml файл, который будет запускать несколько реплик.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Смысл! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Данный вариант конфигурации yml файла позволит нам в будущем не удалять сайт, перед перезапуском обновления, а лишь останавливать одну из реплик каждого сервиса</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">version: '3.9'
+services:
+  db:
+    image: mariadb:10.10.2
+    restart: always
+    environment:
+      MYSQL_ROOT_PASSWORD: 12345
+    volumes:
+      - /home/user:/var/lib/my_sql
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    deploy:
+      mode: replicated
+      replicas: 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  adminer:
+    image: adminer:4.8.1
+    restart: always
+    ports:
+      -6080:8080
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    deploy:
+      mode: replicated
+      replicas: 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Создаем  один yaml файл</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Когда мы запускаем yml файл, то автоматически (по умолчанию) срабатывает команда --link, которая связывает все запускаемые контейнеры. Это сделано потому, что по логике любой yml файл предполагает запуск не чужых в отношении друг друга контейнеров, а наоборот - поэтому сразу уже по умолчанию указан --link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вывод - очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В docker-compose также реализован алгоритм балансировщика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Если запускается по две реплики контейнера с базой данных, то adminer будет направлять в случайном порядке, выбирая самый доступный из реплик контейнер</t>
+    </r>
+  </si>
+  <si>
+    <t>Семинар: 01 32 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сети docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+показать запущенные сети в рамках docker
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NETWORK ID сохраняет значение между разными нодами в рамках сети ingress</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сети docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+скачать и запустить контейнер с предустановленным ip и указанием на сеть test-network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сети docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+создать дополнительную подсеть в docker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сети docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+показать ID созданных сетей docker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сети docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+показать виртуальную сеть test-network и подключенные к ней интерфейсы</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5322,6 +8861,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -5582,7 +9139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5593,20 +9150,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5642,10 +9199,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5663,10 +9220,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5684,22 +9241,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5714,7 +9271,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5723,7 +9280,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5732,7 +9289,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5744,10 +9301,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5765,73 +9322,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5840,47 +9397,131 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7045,6 +10686,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>455706</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>7472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2502647</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>1185670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Рисунок 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D3F0A3-9DBD-1882-225A-3F1C9D9F821C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2973294" y="189065648"/>
+          <a:ext cx="2046941" cy="1178198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373528</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>67259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3175775</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>1208157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Рисунок 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805C0911-CD19-F9A8-9624-61097C2DEC7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2891116" y="190791377"/>
+          <a:ext cx="2802247" cy="1140898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302318</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2645950</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>1252194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27B6AFC-8CDE-5946-0389-F18F2613FDF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819906" y="192995176"/>
+          <a:ext cx="2343632" cy="1192430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2079285</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>1077792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Рисунок 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F0515D-9C20-C91C-3E74-67DF2BF3B057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11661588" y="192980236"/>
+          <a:ext cx="1862638" cy="1032968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>567763</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>169424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2420470</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>1502105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D09FFF-6CF6-C7AC-421E-0EB457DC5ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3085351" y="199738718"/>
+          <a:ext cx="1852707" cy="1332681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7314,10 +11175,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V291"/>
+  <dimension ref="A2:V410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7730,7 +11591,7 @@
         <v>87</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>111</v>
@@ -7981,7 +11842,7 @@
         <v>125</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
@@ -8010,244 +11871,244 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C63" s="28"/>
       <c r="D63" s="17"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A65" s="33" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D65" s="62" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="59" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D66" s="53"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="33" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="33" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="52" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C69" s="56"/>
       <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="33" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="33" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="33" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="33" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D78" s="19"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="37" t="s">
         <v>228</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>233</v>
       </c>
       <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="60" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C81" s="45"/>
       <c r="D81" s="61"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="52" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A83" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="62" t="s">
         <v>236</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D83" s="62" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="72" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D84" s="19"/>
     </row>
     <row r="85" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="72" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D85" s="62" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="81"/>
       <c r="B86" s="34"/>
       <c r="C86" s="39" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D86" s="20"/>
     </row>
@@ -8272,10 +12133,10 @@
     </row>
     <row r="89" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C89" s="80" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G89" s="1"/>
       <c r="P89" s="1"/>
@@ -8284,10 +12145,10 @@
     </row>
     <row r="90" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="64" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C90" s="63" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G90" s="1"/>
       <c r="P90" s="1"/>
@@ -8296,41 +12157,41 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="37" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C91" s="63" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="37" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="37" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="37" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C94" s="63" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="37" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C95" s="63" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" s="70" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="71"/>
@@ -8339,13 +12200,13 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="72"/>
       <c r="C97" s="63" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D97" s="19"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="52" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B98" s="57"/>
       <c r="C98" s="65"/>
@@ -8353,23 +12214,23 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="73" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C99" s="63"/>
       <c r="D99" s="19"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="73" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C100" s="63" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D100" s="19"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="76" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B101" s="57"/>
       <c r="C101" s="65"/>
@@ -8377,62 +12238,62 @@
     </row>
     <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="73" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C102" s="63" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D102" s="19"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="73"/>
       <c r="C103" s="63" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D103" s="19"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="73"/>
       <c r="C104" s="63" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D104" s="19"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="73"/>
       <c r="C105" s="63" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D105" s="19"/>
     </row>
     <row r="106" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A106" s="72" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C106" s="63" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D106" s="19"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="74" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B107" s="69"/>
       <c r="C107" s="67" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D107" s="61"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="79" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="63"/>
@@ -8440,312 +12301,312 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="73" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C109" s="63" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D109" s="19"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="73" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C110" s="63" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D110" s="19"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="73" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C111" s="63" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D111" s="19"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="73" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C112" s="63" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D112" s="19"/>
     </row>
     <row r="113" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A113" s="73" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C113" s="63" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="73" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C114" s="63"/>
       <c r="D114" s="19"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="33" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C115" s="63"/>
       <c r="D115" s="19"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="73" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C116" s="63"/>
       <c r="D116" s="19"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="73" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C117" s="63"/>
       <c r="D117" s="19"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="73" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C118" s="63"/>
       <c r="D118" s="19"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C119" s="63"/>
       <c r="D119" s="19"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C120" s="63" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D120" s="19"/>
     </row>
     <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C121" s="63" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D121" s="19"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="75" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C122" s="65"/>
       <c r="D122" s="53"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="73" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C123" s="63" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D123" s="19"/>
     </row>
     <row r="124" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B124" s="63" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C124" s="63" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D124" s="19"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C125" s="63" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C126" s="63"/>
       <c r="D126" s="19"/>
     </row>
     <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C127" s="63" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D127" s="19"/>
     </row>
     <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="73" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C128" s="63" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D128" s="19"/>
     </row>
     <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="73" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C129" s="63" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D129" s="19"/>
     </row>
     <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="73" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C130" s="63" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D130" s="19"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C131" s="63" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D131" s="19"/>
     </row>
     <row r="132" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="74" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B132" s="44"/>
       <c r="C132" s="67" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D132" s="61"/>
     </row>
     <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="76" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B133" s="57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C133" s="65"/>
       <c r="D133" s="53"/>
     </row>
     <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C134" s="63" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D134" s="19"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="73" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C135" s="63"/>
       <c r="D135" s="19"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="73" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C136" s="63" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D136" s="19"/>
     </row>
     <row r="137" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="74" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B137" s="44"/>
       <c r="C137" s="67" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D137" s="61"/>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="79" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B138" s="57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C138" s="63"/>
       <c r="D138" s="19"/>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C139" s="63" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D139" s="19"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="68" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B140" s="57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C140" s="65"/>
       <c r="D140" s="41"/>
     </row>
     <row r="141" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A141" s="66" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C141" s="67" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D141" s="46"/>
     </row>
@@ -8776,11 +12637,11 @@
     </row>
     <row r="147" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="77" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B147" s="34"/>
       <c r="C147" s="78" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D147" s="20"/>
     </row>
@@ -8817,10 +12678,10 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C152" s="80" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G152" s="1"/>
       <c r="P152" s="1"/>
@@ -8829,123 +12690,123 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A153" s="83" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C153" s="63"/>
       <c r="D153" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="63"/>
       <c r="B154" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C154" s="82" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A155" s="63"/>
       <c r="C155" s="82" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="63"/>
       <c r="C156" s="82" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="63"/>
       <c r="C157" s="82" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C158" s="82" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C160" s="82" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C161" s="82" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="C163" s="82" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="165" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="B165" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C165" s="82" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C167" s="82" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="169" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B169" s="18"/>
       <c r="C169" s="18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.35">
@@ -8975,7 +12836,7 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>87</v>
@@ -8986,150 +12847,134 @@
       <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A175" s="94" t="s">
-        <v>386</v>
-      </c>
-      <c r="B175" s="95"/>
-      <c r="C175" s="96"/>
-      <c r="D175" s="96"/>
+      <c r="A175" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C175" s="1"/>
       <c r="G175" s="1"/>
       <c r="P175" s="1"/>
       <c r="U175" s="1"/>
       <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A176" s="96" t="s">
-        <v>385</v>
-      </c>
-      <c r="B176" s="95"/>
-      <c r="C176" s="96" t="s">
-        <v>386</v>
-      </c>
-      <c r="D176" s="96"/>
+      <c r="A176" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="G176" s="1"/>
       <c r="P176" s="1"/>
       <c r="U176" s="1"/>
       <c r="V176" s="2"/>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A177" s="96" t="s">
-        <v>387</v>
-      </c>
-      <c r="B177" s="95"/>
-      <c r="C177" s="96"/>
-      <c r="D177" s="96"/>
+      <c r="A177" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C177" s="1"/>
       <c r="G177" s="1"/>
       <c r="P177" s="1"/>
       <c r="U177" s="1"/>
       <c r="V177" s="2"/>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A178" s="96" t="s">
-        <v>388</v>
-      </c>
-      <c r="B178" s="95"/>
-      <c r="C178" s="89" t="s">
-        <v>389</v>
-      </c>
-      <c r="D178" s="96"/>
+      <c r="A178" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>384</v>
+      </c>
       <c r="G178" s="1"/>
       <c r="P178" s="1"/>
       <c r="U178" s="1"/>
       <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A179" s="96" t="s">
-        <v>390</v>
-      </c>
-      <c r="B179" s="95"/>
-      <c r="C179" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="D179" s="96"/>
+      <c r="A179" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>386</v>
+      </c>
       <c r="G179" s="1"/>
       <c r="P179" s="1"/>
       <c r="U179" s="1"/>
       <c r="V179" s="2"/>
     </row>
     <row r="180" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="96" t="s">
-        <v>415</v>
-      </c>
-      <c r="B180" s="95"/>
-      <c r="C180" s="89" t="s">
-        <v>416</v>
-      </c>
-      <c r="D180" s="96"/>
+      <c r="A180" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>411</v>
+      </c>
       <c r="G180" s="1"/>
       <c r="P180" s="1"/>
       <c r="U180" s="1"/>
       <c r="V180" s="2"/>
     </row>
     <row r="181" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="96"/>
-      <c r="B181" s="96" t="s">
-        <v>417</v>
-      </c>
-      <c r="C181" s="89" t="s">
-        <v>418</v>
-      </c>
-      <c r="D181" s="96"/>
+      <c r="B181" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>413</v>
+      </c>
       <c r="G181" s="1"/>
       <c r="P181" s="1"/>
       <c r="U181" s="1"/>
       <c r="V181" s="2"/>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A182" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="B182" s="97"/>
-      <c r="C182" s="89" t="s">
-        <v>352</v>
-      </c>
-      <c r="D182" s="96"/>
+      <c r="A182" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B182" s="84"/>
+      <c r="C182" s="18" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A183" s="89" t="s">
-        <v>353</v>
-      </c>
-      <c r="B183" s="89"/>
-      <c r="C183" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="D183" s="96"/>
+      <c r="A183" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B183" s="18"/>
+      <c r="C183" s="18" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A184" s="98" t="s">
-        <v>376</v>
-      </c>
-      <c r="B184" s="89"/>
-      <c r="C184" s="89"/>
-      <c r="D184" s="99"/>
+      <c r="A184" s="86" t="s">
+        <v>371</v>
+      </c>
+      <c r="B184" s="18"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="85"/>
     </row>
     <row r="185" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A185" s="89" t="s">
-        <v>392</v>
-      </c>
-      <c r="B185" s="89"/>
-      <c r="C185" s="89" t="s">
-        <v>377</v>
-      </c>
-      <c r="D185" s="99"/>
+      <c r="A185" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B185" s="18"/>
+      <c r="C185" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D185" s="85"/>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B186" s="18"/>
       <c r="C186" s="18" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D186" s="85"/>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A187" s="86" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
@@ -9137,156 +12982,158 @@
     </row>
     <row r="188" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A188" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="B188" s="90" t="s">
-        <v>435</v>
-      </c>
-      <c r="C188" s="90" t="s">
-        <v>447</v>
+        <v>374</v>
+      </c>
+      <c r="B188" s="89" t="s">
+        <v>430</v>
+      </c>
+      <c r="C188" s="89" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="189" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A189" s="91" t="s">
-        <v>419</v>
-      </c>
-      <c r="B189" s="92" t="s">
-        <v>422</v>
-      </c>
-      <c r="C189" s="92" t="s">
-        <v>420</v>
-      </c>
-      <c r="D189" s="93" t="s">
-        <v>421</v>
+      <c r="A189" s="90" t="s">
+        <v>414</v>
+      </c>
+      <c r="B189" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="C189" s="91" t="s">
+        <v>415</v>
+      </c>
+      <c r="D189" s="92" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="14" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B190" s="84"/>
-      <c r="C190" s="90" t="s">
-        <v>410</v>
+      <c r="C190" s="89" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="191" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="14" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B191" s="84"/>
-      <c r="C191" s="90" t="s">
-        <v>451</v>
+      <c r="C191" s="89" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="C192" s="90" t="s">
-        <v>402</v>
+        <v>396</v>
+      </c>
+      <c r="C192" s="89" t="s">
+        <v>397</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A193" s="100" t="s">
-        <v>438</v>
-      </c>
-      <c r="B193" s="92" t="s">
+      <c r="A193" s="93" t="s">
+        <v>433</v>
+      </c>
+      <c r="B193" s="94" t="s">
+        <v>462</v>
+      </c>
+      <c r="C193" s="91" t="s">
+        <v>428</v>
+      </c>
+      <c r="D193" s="94" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A194" s="93" t="s">
+        <v>426</v>
+      </c>
+      <c r="B194" s="94" t="s">
+        <v>461</v>
+      </c>
+      <c r="C194" s="91" t="s">
+        <v>427</v>
+      </c>
+      <c r="D194" s="92"/>
+    </row>
+    <row r="195" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A195" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="B195" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="C195" s="91" t="s">
+        <v>429</v>
+      </c>
+      <c r="D195" s="92"/>
+    </row>
+    <row r="196" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="B196" s="94" t="s">
+        <v>464</v>
+      </c>
+      <c r="C196" s="91" t="s">
+        <v>431</v>
+      </c>
+      <c r="D196" s="92"/>
+    </row>
+    <row r="197" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A197" s="93" t="s">
         <v>440</v>
       </c>
-      <c r="C193" s="92" t="s">
-        <v>433</v>
-      </c>
-      <c r="D193" s="93"/>
-    </row>
-    <row r="194" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A194" s="100" t="s">
-        <v>431</v>
-      </c>
-      <c r="B194" s="92" t="s">
+      <c r="B197" s="91" t="s">
+        <v>434</v>
+      </c>
+      <c r="C197" s="91" t="s">
         <v>439</v>
       </c>
-      <c r="C194" s="92" t="s">
-        <v>432</v>
-      </c>
-      <c r="D194" s="93"/>
-    </row>
-    <row r="195" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A195" s="100" t="s">
-        <v>430</v>
-      </c>
-      <c r="B195" s="92" t="s">
-        <v>441</v>
-      </c>
-      <c r="C195" s="92" t="s">
-        <v>434</v>
-      </c>
-      <c r="D195" s="93"/>
-    </row>
-    <row r="196" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="100" t="s">
-        <v>437</v>
-      </c>
-      <c r="B196" s="92" t="s">
-        <v>442</v>
-      </c>
-      <c r="C196" s="92" t="s">
-        <v>436</v>
-      </c>
-      <c r="D196" s="93"/>
-    </row>
-    <row r="197" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A197" s="100" t="s">
-        <v>449</v>
-      </c>
-      <c r="B197" s="92" t="s">
-        <v>443</v>
-      </c>
-      <c r="C197" s="92" t="s">
-        <v>448</v>
-      </c>
-      <c r="D197" s="93"/>
+      <c r="D197" s="92"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="18" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D198" s="85"/>
     </row>
     <row r="199" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B199" s="18"/>
       <c r="C199" s="87" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D199" s="85"/>
     </row>
     <row r="200" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B200" s="18"/>
-      <c r="C200" s="90" t="s">
-        <v>407</v>
+      <c r="C200" s="89" t="s">
+        <v>402</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="86" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B201" s="18"/>
       <c r="C201" s="87"/>
@@ -9294,19 +13141,19 @@
     </row>
     <row r="202" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A202" s="14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C202" s="88" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D202" s="85"/>
     </row>
     <row r="203" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="86" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
@@ -9314,19 +13161,19 @@
     </row>
     <row r="204" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B204" s="90" t="s">
-        <v>445</v>
-      </c>
-      <c r="C204" s="90" t="s">
-        <v>429</v>
+        <v>357</v>
+      </c>
+      <c r="B204" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="C204" s="89" t="s">
+        <v>424</v>
       </c>
       <c r="D204" s="85"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="86" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -9334,19 +13181,19 @@
     </row>
     <row r="208" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B208" s="18"/>
       <c r="C208" s="88" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D208" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A209" s="86" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
@@ -9354,65 +13201,65 @@
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B210" s="18"/>
       <c r="C210" s="18" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D210" s="85"/>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B211" s="18"/>
       <c r="C211" s="18" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D211" s="85" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="212" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A212" s="18" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D212" s="85"/>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A213" s="18" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D213" s="85"/>
     </row>
     <row r="214" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="18" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B214" s="18" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D214" s="85"/>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A215" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -9420,34 +13267,34 @@
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D217" s="18"/>
     </row>
     <row r="218" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D218" s="85"/>
     </row>
@@ -9476,10 +13323,10 @@
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>87</v>
@@ -9491,30 +13338,30 @@
     </row>
     <row r="222" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B222" s="90" t="s">
-        <v>427</v>
-      </c>
-      <c r="C222" s="92" t="s">
-        <v>425</v>
+        <v>395</v>
+      </c>
+      <c r="B222" s="89" t="s">
+        <v>422</v>
+      </c>
+      <c r="C222" s="91" t="s">
+        <v>420</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="223" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A223" s="18" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B223" s="88" t="s">
-        <v>455</v>
-      </c>
-      <c r="C223" s="90" t="s">
-        <v>453</v>
+        <v>446</v>
+      </c>
+      <c r="C223" s="89" t="s">
+        <v>444</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.35">
@@ -9525,7 +13372,7 @@
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A225" s="18" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
@@ -9533,7 +13380,7 @@
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A226" s="86" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
@@ -9541,69 +13388,69 @@
     </row>
     <row r="227" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="18" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C227" s="18" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D227" s="18"/>
     </row>
     <row r="228" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A228" s="18" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D228" s="18"/>
     </row>
     <row r="229" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C229" s="18" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D229" s="18"/>
     </row>
-    <row r="230" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A230" s="18" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>189</v>
+        <v>489</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="D230" s="18"/>
     </row>
     <row r="231" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="86" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
       <c r="D231" s="18"/>
     </row>
-    <row r="232" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A232" s="18" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C232" s="18" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="D232" s="18"/>
     </row>
@@ -9611,7 +13458,7 @@
       <c r="A233" s="18"/>
       <c r="B233" s="18"/>
       <c r="C233" s="18" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D233" s="18"/>
     </row>
@@ -9619,7 +13466,7 @@
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
       <c r="C234" s="18" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D234" s="18"/>
     </row>
@@ -9708,7 +13555,7 @@
         <v>135</v>
       </c>
       <c r="C245" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -9723,7 +13570,7 @@
     </row>
     <row r="248" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C248" s="36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -9736,7 +13583,7 @@
         <v>135</v>
       </c>
       <c r="C250" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -9762,7 +13609,7 @@
         <v>135</v>
       </c>
       <c r="C254" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -9801,7 +13648,7 @@
         <v>135</v>
       </c>
       <c r="C260" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
@@ -9814,7 +13661,7 @@
         <v>135</v>
       </c>
       <c r="C262" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
@@ -9828,7 +13675,7 @@
       </c>
       <c r="B264" s="36"/>
       <c r="C264" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -9841,7 +13688,7 @@
         <v>135</v>
       </c>
       <c r="C266" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
@@ -9854,7 +13701,7 @@
         <v>135</v>
       </c>
       <c r="C268" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
@@ -9864,12 +13711,12 @@
     </row>
     <row r="270" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C270" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C271" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
@@ -9879,162 +13726,1225 @@
     </row>
     <row r="273" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C273" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B274" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C274" s="111" t="s">
+        <v>614</v>
+      </c>
+      <c r="D274" s="36"/>
+    </row>
+    <row r="275" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C275" s="111" t="s">
+        <v>613</v>
+      </c>
+      <c r="D275" s="36" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A277" s="3"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+      <c r="N277" s="3"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="U277" s="5"/>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="274" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C274" s="36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A276" s="3"/>
-      <c r="B276" s="5"/>
-      <c r="C276" s="6"/>
-      <c r="D276" s="3"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="5"/>
-      <c r="H276" s="3"/>
-      <c r="I276" s="3"/>
-      <c r="K276" s="3"/>
-      <c r="L276" s="3"/>
-      <c r="M276" s="3"/>
-      <c r="N276" s="3"/>
-      <c r="P276" s="5"/>
-      <c r="Q276" s="5"/>
-      <c r="R276" s="5"/>
-      <c r="S276" s="5"/>
-      <c r="U276" s="5"/>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A277" s="1" t="s">
+      <c r="C278" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G278" s="1"/>
+      <c r="P278" s="1"/>
+      <c r="U278" s="1"/>
+      <c r="V278" s="2"/>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A279" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B280" s="95" t="s">
+        <v>470</v>
+      </c>
+      <c r="C280" s="95" t="s">
+        <v>472</v>
+      </c>
+      <c r="D280" s="95" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="95" t="s">
+        <v>465</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C281" s="36" t="s">
         <v>169</v>
-      </c>
-      <c r="C277" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G277" s="1"/>
-      <c r="P277" s="1"/>
-      <c r="U277" s="1"/>
-      <c r="V277" s="2"/>
-    </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A278" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="279" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A279" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C279" s="36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="280" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A280" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C280" s="36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A281" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C281" s="36" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C282" s="36" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C283" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C284" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A285" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A286" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="B286" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C286" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="C283" s="36" t="s">
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A287" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A284" s="25" t="s">
+    <row r="288" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A288" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B288" s="36" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="285" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A285" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="B285" s="36" t="s">
+      <c r="C288" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C290" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C292" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C285" s="36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A286" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="287" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A287" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="B287" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C287" s="36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A288" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A289" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C289" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A291" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C291" s="36" t="s">
-        <v>193</v>
-      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A294" s="95" t="s">
+        <v>474</v>
+      </c>
+      <c r="C294" s="95" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A295" s="95" t="s">
+        <v>475</v>
+      </c>
+      <c r="C295" s="95" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A299" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B299" s="111" t="s">
+        <v>612</v>
+      </c>
+      <c r="C299" s="95" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A300" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B300" s="95" t="s">
+        <v>481</v>
+      </c>
+      <c r="C300" s="95" t="s">
+        <v>486</v>
+      </c>
+      <c r="D300" s="97" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="C301" s="95" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A302" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B302" s="95" t="s">
+        <v>491</v>
+      </c>
+      <c r="C302" s="95" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A303" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B304" s="96"/>
+      <c r="C304" s="18"/>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A305" s="3"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="3"/>
+      <c r="F305" s="3"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="3"/>
+      <c r="I305" s="3"/>
+      <c r="K305" s="3"/>
+      <c r="L305" s="3"/>
+      <c r="M305" s="3"/>
+      <c r="N305" s="3"/>
+      <c r="P305" s="5"/>
+      <c r="Q305" s="5"/>
+      <c r="R305" s="5"/>
+      <c r="S305" s="5"/>
+      <c r="U305" s="5"/>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C306" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="G306" s="1"/>
+      <c r="P306" s="1"/>
+      <c r="U306" s="1"/>
+      <c r="V306" s="2"/>
+    </row>
+    <row r="307" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A307" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="B307" s="111" t="s">
+        <v>615</v>
+      </c>
+      <c r="C307" s="97" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A308" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="C308" s="97" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A309" s="3"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="3"/>
+      <c r="F309" s="3"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="3"/>
+      <c r="I309" s="3"/>
+      <c r="K309" s="3"/>
+      <c r="L309" s="3"/>
+      <c r="M309" s="3"/>
+      <c r="N309" s="3"/>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="5"/>
+      <c r="U309" s="5"/>
+    </row>
+    <row r="310" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A310" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C310" s="103" t="s">
+        <v>558</v>
+      </c>
+      <c r="G310" s="1"/>
+      <c r="P310" s="1"/>
+      <c r="U310" s="1"/>
+      <c r="V310" s="2"/>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A311" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="B311" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C311" s="100" t="s">
+        <v>506</v>
+      </c>
+      <c r="D311" s="17"/>
+    </row>
+    <row r="312" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A312" s="33"/>
+      <c r="B312" s="116"/>
+      <c r="C312" s="126" t="s">
+        <v>504</v>
+      </c>
+      <c r="D312" s="19"/>
+    </row>
+    <row r="313" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A313" s="33"/>
+      <c r="B313" s="116"/>
+      <c r="C313" s="126" t="s">
+        <v>505</v>
+      </c>
+      <c r="D313" s="19"/>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A314" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="B314" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="C314" s="127"/>
+      <c r="D314" s="19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A315" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="B315" s="119" t="s">
+        <v>668</v>
+      </c>
+      <c r="C315" s="119" t="s">
+        <v>667</v>
+      </c>
+      <c r="D315" s="19"/>
+    </row>
+    <row r="316" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A316" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="B316" s="116"/>
+      <c r="C316" s="127"/>
+      <c r="D316" s="19"/>
+    </row>
+    <row r="317" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A317" s="128" t="s">
+        <v>517</v>
+      </c>
+      <c r="B317" s="116"/>
+      <c r="C317" s="126" t="s">
+        <v>516</v>
+      </c>
+      <c r="D317" s="19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A318" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="B318" s="116" t="s">
+        <v>519</v>
+      </c>
+      <c r="C318" s="126"/>
+      <c r="D318" s="19"/>
+    </row>
+    <row r="319" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A319" s="31"/>
+      <c r="B319" s="116" t="s">
+        <v>520</v>
+      </c>
+      <c r="C319" s="124" t="s">
+        <v>521</v>
+      </c>
+      <c r="D319" s="19"/>
+    </row>
+    <row r="320" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A320" s="31"/>
+      <c r="B320" s="116" t="s">
+        <v>522</v>
+      </c>
+      <c r="C320" s="119" t="s">
+        <v>659</v>
+      </c>
+      <c r="D320" s="19"/>
+    </row>
+    <row r="321" spans="1:22" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A321" s="101"/>
+      <c r="B321" s="125" t="s">
+        <v>661</v>
+      </c>
+      <c r="C321" s="125" t="s">
+        <v>660</v>
+      </c>
+      <c r="D321" s="20"/>
+    </row>
+    <row r="322" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A322" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C322" s="97" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A323" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C323" s="97" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A325" s="3"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="3"/>
+      <c r="F325" s="3"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="3"/>
+      <c r="I325" s="3"/>
+      <c r="K325" s="3"/>
+      <c r="L325" s="3"/>
+      <c r="M325" s="3"/>
+      <c r="N325" s="3"/>
+      <c r="P325" s="5"/>
+      <c r="Q325" s="5"/>
+      <c r="R325" s="5"/>
+      <c r="S325" s="5"/>
+      <c r="U325" s="5"/>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A326" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C326" s="103" t="s">
+        <v>559</v>
+      </c>
+      <c r="G326" s="1"/>
+      <c r="P326" s="1"/>
+      <c r="U326" s="1"/>
+      <c r="V326" s="2"/>
+    </row>
+    <row r="327" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A327" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="C327" s="99" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A328" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C329" s="99" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A330" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C331" s="99" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A332" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C333" s="99" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A334" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A335" s="2"/>
+      <c r="C335" s="102" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A336" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C336" s="99" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A337" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C337" s="102" t="s">
+        <v>554</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A338" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C338" s="99" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A339" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C339" s="99" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A340" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C340" s="99" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A341" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C341" s="102" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A342" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C342" s="99" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A343" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C343" s="99" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A344" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C344" s="99" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A345" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+      <c r="B346" s="111" t="s">
+        <v>662</v>
+      </c>
+      <c r="C346" s="111" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A347" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C347" s="99" t="s">
+        <v>551</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A348" s="10"/>
+      <c r="B348" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C348" s="99"/>
+    </row>
+    <row r="349" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B349" s="111" t="s">
+        <v>669</v>
+      </c>
+      <c r="C349" s="111" t="s">
+        <v>663</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A350" s="111" t="s">
+        <v>664</v>
+      </c>
+      <c r="B350" s="111" t="s">
+        <v>665</v>
+      </c>
+      <c r="C350" s="111" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C351" s="99"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C352" s="99"/>
+    </row>
+    <row r="353" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C353" s="99"/>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C354" s="102"/>
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A355" s="3"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="3"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="3"/>
+      <c r="I355" s="3"/>
+      <c r="K355" s="3"/>
+      <c r="L355" s="3"/>
+      <c r="M355" s="3"/>
+      <c r="N355" s="3"/>
+      <c r="P355" s="5"/>
+      <c r="Q355" s="5"/>
+      <c r="R355" s="5"/>
+      <c r="S355" s="5"/>
+      <c r="U355" s="5"/>
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A356" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C356" s="103" t="s">
+        <v>499</v>
+      </c>
+      <c r="G356" s="1"/>
+      <c r="P356" s="1"/>
+      <c r="U356" s="1"/>
+      <c r="V356" s="2"/>
+    </row>
+    <row r="357" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A357" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B357" s="112" t="s">
+        <v>617</v>
+      </c>
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C358" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A359" s="10" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A360" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C360" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A361" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A362" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C362" s="102" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A363" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A364" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C364" s="102" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A365" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="B365" s="27"/>
+      <c r="C365" s="114" t="s">
+        <v>570</v>
+      </c>
+      <c r="D365" s="17" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A366" s="115" t="s">
+        <v>571</v>
+      </c>
+      <c r="B366" s="116" t="s">
+        <v>575</v>
+      </c>
+      <c r="C366" s="117" t="s">
+        <v>573</v>
+      </c>
+      <c r="D366" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A367" s="115" t="s">
+        <v>574</v>
+      </c>
+      <c r="B367" s="116" t="s">
+        <v>638</v>
+      </c>
+      <c r="C367" s="117" t="s">
+        <v>572</v>
+      </c>
+      <c r="D367" s="19"/>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A368" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="B368" s="116"/>
+      <c r="C368" s="117"/>
+      <c r="D368" s="19"/>
+    </row>
+    <row r="369" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A369" s="118" t="s">
+        <v>636</v>
+      </c>
+      <c r="B369" s="116" t="s">
+        <v>630</v>
+      </c>
+      <c r="C369" s="119" t="s">
+        <v>637</v>
+      </c>
+      <c r="D369" s="19"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A370" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="B370" s="116"/>
+      <c r="C370" s="119"/>
+      <c r="D370" s="19"/>
+    </row>
+    <row r="371" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A371" s="118" t="s">
+        <v>646</v>
+      </c>
+      <c r="B371" s="116" t="s">
+        <v>648</v>
+      </c>
+      <c r="C371" s="119" t="s">
+        <v>631</v>
+      </c>
+      <c r="D371" s="19"/>
+    </row>
+    <row r="372" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A372" s="118" t="s">
+        <v>633</v>
+      </c>
+      <c r="B372" s="116" t="s">
+        <v>638</v>
+      </c>
+      <c r="C372" s="117" t="s">
+        <v>580</v>
+      </c>
+      <c r="D372" s="19"/>
+    </row>
+    <row r="373" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A373" s="120" t="s">
+        <v>657</v>
+      </c>
+      <c r="B373" s="116"/>
+      <c r="C373" s="123" t="s">
+        <v>658</v>
+      </c>
+      <c r="D373" s="19"/>
+    </row>
+    <row r="374" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A374" s="118" t="s">
+        <v>644</v>
+      </c>
+      <c r="B374" s="116" t="s">
+        <v>647</v>
+      </c>
+      <c r="C374" s="119" t="s">
+        <v>635</v>
+      </c>
+      <c r="D374" s="19"/>
+    </row>
+    <row r="375" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A375" s="120" t="s">
+        <v>652</v>
+      </c>
+      <c r="B375" s="116"/>
+      <c r="C375" s="119"/>
+      <c r="D375" s="19"/>
+    </row>
+    <row r="376" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A376" s="118" t="s">
+        <v>639</v>
+      </c>
+      <c r="B376" s="116" t="s">
+        <v>638</v>
+      </c>
+      <c r="C376" s="119" t="s">
+        <v>643</v>
+      </c>
+      <c r="D376" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A377" s="118" t="s">
+        <v>645</v>
+      </c>
+      <c r="B377" s="116" t="s">
+        <v>638</v>
+      </c>
+      <c r="C377" s="119" t="s">
+        <v>642</v>
+      </c>
+      <c r="D377" s="121" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A378" s="120" t="s">
+        <v>653</v>
+      </c>
+      <c r="B378" s="116"/>
+      <c r="C378" s="119" t="s">
+        <v>654</v>
+      </c>
+      <c r="D378" s="19"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A379" s="115" t="s">
+        <v>576</v>
+      </c>
+      <c r="B379" s="116" t="s">
+        <v>630</v>
+      </c>
+      <c r="C379" s="117" t="s">
+        <v>577</v>
+      </c>
+      <c r="D379" s="19"/>
+    </row>
+    <row r="380" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A380" s="118" t="s">
+        <v>632</v>
+      </c>
+      <c r="B380" s="116" t="s">
+        <v>638</v>
+      </c>
+      <c r="C380" s="117" t="s">
+        <v>578</v>
+      </c>
+      <c r="D380" s="19" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A381" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="B381" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="C381" s="122" t="s">
+        <v>582</v>
+      </c>
+      <c r="D381" s="20"/>
+    </row>
+    <row r="382" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A382" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B382" s="112" t="s">
+        <v>617</v>
+      </c>
+      <c r="C382" s="113" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A383" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C383" s="111" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A384" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C384" s="111" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A385" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C385" s="111" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A386" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C386" s="111"/>
+    </row>
+    <row r="387" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C387" s="111" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A388" s="10"/>
+      <c r="B388" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C389" s="111" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A390" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B390" s="111" t="s">
+        <v>628</v>
+      </c>
+      <c r="C390" s="111" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A392" s="3"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="6"/>
+      <c r="D392" s="3"/>
+      <c r="F392" s="3"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="3"/>
+      <c r="I392" s="3"/>
+      <c r="K392" s="3"/>
+      <c r="L392" s="3"/>
+      <c r="M392" s="3"/>
+      <c r="N392" s="3"/>
+      <c r="P392" s="5"/>
+      <c r="Q392" s="5"/>
+      <c r="R392" s="5"/>
+      <c r="S392" s="5"/>
+      <c r="U392" s="5"/>
+    </row>
+    <row r="393" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A393" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C393" s="104" t="s">
+        <v>594</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G393" s="1"/>
+      <c r="P393" s="1"/>
+      <c r="U393" s="1"/>
+      <c r="V393" s="2"/>
+    </row>
+    <row r="394" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C394" s="102" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C395" s="102" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="396" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C396" s="102" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C397" s="102" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="398" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A398" s="105" t="s">
+        <v>590</v>
+      </c>
+      <c r="C398" s="111" t="s">
+        <v>671</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="399" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A399" s="105" t="s">
+        <v>592</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C399" s="111" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="400" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A400" s="105" t="s">
+        <v>593</v>
+      </c>
+      <c r="B400" s="105" t="s">
+        <v>595</v>
+      </c>
+      <c r="C400" s="111" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A401" s="105" t="s">
+        <v>596</v>
+      </c>
+      <c r="C401" s="111" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A402" s="105" t="s">
+        <v>597</v>
+      </c>
+      <c r="C402" s="111" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A403" s="106" t="s">
+        <v>599</v>
+      </c>
+      <c r="B403" s="27"/>
+      <c r="C403" s="107"/>
+      <c r="D403" s="17"/>
+    </row>
+    <row r="404" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A404" s="109" t="s">
+        <v>600</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C404" s="105" t="s">
+        <v>603</v>
+      </c>
+      <c r="D404" s="19"/>
+    </row>
+    <row r="405" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A405" s="110" t="s">
+        <v>604</v>
+      </c>
+      <c r="B405" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="C405" s="108" t="s">
+        <v>605</v>
+      </c>
+      <c r="D405" s="20"/>
+    </row>
+    <row r="406" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A406" s="106" t="s">
+        <v>611</v>
+      </c>
+      <c r="B406" s="27"/>
+      <c r="C406" s="107" t="s">
+        <v>606</v>
+      </c>
+      <c r="D406" s="17"/>
+    </row>
+    <row r="407" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A407" s="33"/>
+      <c r="C407" s="105" t="s">
+        <v>608</v>
+      </c>
+      <c r="D407" s="19"/>
+    </row>
+    <row r="408" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A408" s="33"/>
+      <c r="C408" s="105" t="s">
+        <v>607</v>
+      </c>
+      <c r="D408" s="19"/>
+    </row>
+    <row r="409" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A409" s="33"/>
+      <c r="C409" s="105" t="s">
+        <v>609</v>
+      </c>
+      <c r="D409" s="19"/>
+    </row>
+    <row r="410" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A410" s="38"/>
+      <c r="B410" s="34"/>
+      <c r="C410" s="108" t="s">
+        <v>610</v>
+      </c>
+      <c r="D410" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_7_Программист_Контейнеризация.xlsx
+++ b/2 четверть_7_Программист_Контейнеризация.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36B247C-C22C-4A89-8637-B50A6283B0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B7AFA-29EA-471F-AAD7-DA9D715891FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="677">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -1558,10 +1558,6 @@
   </si>
   <si>
     <t>Инструкция COPY</t>
-  </si>
-  <si>
-    <t>Копирует файлы и папки в процессе сборки образа
-В случае отсутствия директории, создает ее</t>
   </si>
   <si>
     <t>Инструкция ADD</t>
@@ -8663,17 +8659,56 @@
 показать виртуальную сеть test-network и подключенные к ней интерфейсы</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Копирует файлы и папки в процессе сборки образа
+В случае отсутствия директории, создает ее
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Корректно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+COPY &lt;путь откуда копируем&gt; &lt;путь куда копируем&gt;
+COPY ./java ./src</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9139,7 +9174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9150,20 +9185,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9199,10 +9234,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9220,10 +9255,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9241,22 +9276,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9271,7 +9306,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9280,7 +9315,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9289,7 +9324,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9301,10 +9336,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9322,7 +9357,64 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9331,64 +9423,7 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -9397,19 +9432,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9418,109 +9453,91 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10293,50 +10310,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3793525</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>1097643</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F10E83C-2811-CE42-3F1F-DAE041F9048A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2621642" y="71990858"/>
-          <a:ext cx="3684669" cy="970642"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>99785</xdr:colOff>
       <xdr:row>259</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
@@ -10361,7 +10334,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10405,7 +10378,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10449,7 +10422,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10493,7 +10466,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10537,7 +10510,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10581,7 +10554,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10625,7 +10598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10669,7 +10642,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10713,7 +10686,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10757,7 +10730,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10801,7 +10774,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10845,7 +10818,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10889,7 +10862,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11177,8 +11150,8 @@
   </sheetPr>
   <dimension ref="A2:V410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C400" sqref="C400"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11591,7 +11564,7 @@
         <v>87</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>111</v>
@@ -11842,7 +11815,7 @@
         <v>125</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
@@ -11871,244 +11844,244 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="58" t="s">
         <v>204</v>
-      </c>
-      <c r="B63" s="58" t="s">
-        <v>205</v>
       </c>
       <c r="C63" s="28"/>
       <c r="D63" s="17"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="37" t="s">
-        <v>194</v>
-      </c>
       <c r="D64" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A65" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C65" s="37" t="s">
-        <v>196</v>
-      </c>
       <c r="D65" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="40" t="s">
         <v>198</v>
-      </c>
-      <c r="B66" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>199</v>
       </c>
       <c r="D66" s="53"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="56"/>
       <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="37" t="s">
-        <v>208</v>
-      </c>
       <c r="D70" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="37" t="s">
         <v>209</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>210</v>
       </c>
       <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="37" t="s">
         <v>211</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>212</v>
       </c>
       <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="37" t="s">
         <v>213</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>214</v>
       </c>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>220</v>
       </c>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="37" t="s">
         <v>221</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>222</v>
       </c>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="37" t="s">
         <v>224</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>225</v>
       </c>
       <c r="D78" s="19"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C81" s="45"/>
       <c r="D81" s="61"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A83" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>232</v>
-      </c>
       <c r="D83" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="19"/>
     </row>
     <row r="85" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="D85" s="62" t="s">
         <v>238</v>
-      </c>
-      <c r="D85" s="62" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="81"/>
       <c r="B86" s="34"/>
       <c r="C86" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="20"/>
     </row>
@@ -12133,10 +12106,10 @@
     </row>
     <row r="89" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C89" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G89" s="1"/>
       <c r="P89" s="1"/>
@@ -12145,10 +12118,10 @@
     </row>
     <row r="90" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C90" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G90" s="1"/>
       <c r="P90" s="1"/>
@@ -12157,41 +12130,41 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="63" t="s">
         <v>243</v>
-      </c>
-      <c r="C91" s="63" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" s="63" t="s">
         <v>247</v>
-      </c>
-      <c r="C94" s="63" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="63" t="s">
         <v>249</v>
-      </c>
-      <c r="C95" s="63" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="71"/>
@@ -12200,13 +12173,13 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="72"/>
       <c r="C97" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D97" s="19"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B98" s="57"/>
       <c r="C98" s="65"/>
@@ -12214,23 +12187,23 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C99" s="63"/>
       <c r="D99" s="19"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" s="63" t="s">
         <v>293</v>
-      </c>
-      <c r="C100" s="63" t="s">
-        <v>294</v>
       </c>
       <c r="D100" s="19"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B101" s="57"/>
       <c r="C101" s="65"/>
@@ -12238,62 +12211,62 @@
     </row>
     <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C102" s="63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D102" s="19"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="73"/>
       <c r="C103" s="63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="19"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="73"/>
       <c r="C104" s="63" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D104" s="19"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="73"/>
       <c r="C105" s="63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="19"/>
     </row>
     <row r="106" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A106" s="72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C106" s="63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D106" s="19"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B107" s="69"/>
       <c r="C107" s="67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D107" s="61"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="63"/>
@@ -12301,312 +12274,312 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C109" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D109" s="19"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="63" t="s">
         <v>260</v>
-      </c>
-      <c r="C110" s="63" t="s">
-        <v>261</v>
       </c>
       <c r="D110" s="19"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C111" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D111" s="19"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C112" s="63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D112" s="19"/>
     </row>
     <row r="113" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A113" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="C113" s="63" t="s">
         <v>265</v>
-      </c>
-      <c r="C113" s="63" t="s">
-        <v>266</v>
       </c>
       <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C114" s="63"/>
       <c r="D114" s="19"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C115" s="63"/>
       <c r="D115" s="19"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C116" s="63"/>
       <c r="D116" s="19"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C117" s="63"/>
       <c r="D117" s="19"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" s="63"/>
       <c r="D118" s="19"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C119" s="63"/>
       <c r="D119" s="19"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C120" s="63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D120" s="19"/>
     </row>
     <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C121" s="63" t="s">
         <v>276</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C121" s="63" t="s">
-        <v>277</v>
       </c>
       <c r="D121" s="19"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" s="65"/>
       <c r="D122" s="53"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C123" s="63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D123" s="19"/>
     </row>
     <row r="124" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="B124" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="B124" s="63" t="s">
-        <v>309</v>
-      </c>
       <c r="C124" s="63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D124" s="19"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="63" t="s">
         <v>280</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C125" s="63" t="s">
-        <v>281</v>
       </c>
       <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C126" s="63"/>
       <c r="D126" s="19"/>
     </row>
     <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C127" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D127" s="19"/>
     </row>
     <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C128" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D128" s="19"/>
     </row>
     <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C129" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D129" s="19"/>
     </row>
     <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C130" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D130" s="19"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C131" s="63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D131" s="19"/>
     </row>
     <row r="132" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B132" s="44"/>
       <c r="C132" s="67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D132" s="61"/>
     </row>
     <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B133" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C133" s="65"/>
       <c r="D133" s="53"/>
     </row>
     <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C134" s="63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D134" s="19"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C135" s="63"/>
       <c r="D135" s="19"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C136" s="63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D136" s="19"/>
     </row>
     <row r="137" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B137" s="44"/>
       <c r="C137" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D137" s="61"/>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="79" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B138" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C138" s="63"/>
       <c r="D138" s="19"/>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C139" s="63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D139" s="19"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B140" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C140" s="65"/>
       <c r="D140" s="41"/>
     </row>
     <row r="141" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A141" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="B141" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="B141" s="44" t="s">
+      <c r="C141" s="67" t="s">
         <v>318</v>
-      </c>
-      <c r="C141" s="67" t="s">
-        <v>319</v>
       </c>
       <c r="D141" s="46"/>
     </row>
@@ -12637,11 +12610,11 @@
     </row>
     <row r="147" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B147" s="34"/>
       <c r="C147" s="78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D147" s="20"/>
     </row>
@@ -12678,10 +12651,10 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C152" s="80" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G152" s="1"/>
       <c r="P152" s="1"/>
@@ -12690,123 +12663,123 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A153" s="83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C153" s="63"/>
       <c r="D153" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="63"/>
       <c r="B154" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C154" s="82" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A155" s="63"/>
       <c r="C155" s="82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="63"/>
       <c r="C156" s="82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="63"/>
       <c r="C157" s="82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C158" s="82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C160" s="82" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C161" s="82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="C163" s="82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="165" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="B165" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C165" s="82" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" s="82" t="s">
         <v>341</v>
-      </c>
-      <c r="C167" s="82" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C168" s="18" t="s">
         <v>351</v>
-      </c>
-      <c r="B168" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="169" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B169" s="18"/>
       <c r="C169" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.35">
@@ -12836,7 +12809,7 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>87</v>
@@ -12848,7 +12821,7 @@
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C175" s="1"/>
       <c r="G175" s="1"/>
@@ -12858,10 +12831,10 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="G176" s="1"/>
       <c r="P176" s="1"/>
@@ -12870,7 +12843,7 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C177" s="1"/>
       <c r="G177" s="1"/>
@@ -12880,10 +12853,10 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C178" s="18" t="s">
         <v>383</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>384</v>
       </c>
       <c r="G178" s="1"/>
       <c r="P178" s="1"/>
@@ -12892,10 +12865,10 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C179" s="18" t="s">
         <v>385</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>386</v>
       </c>
       <c r="G179" s="1"/>
       <c r="P179" s="1"/>
@@ -12904,10 +12877,10 @@
     </row>
     <row r="180" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C180" s="18" t="s">
         <v>410</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="G180" s="1"/>
       <c r="P180" s="1"/>
@@ -12916,10 +12889,10 @@
     </row>
     <row r="181" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="B181" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C181" s="18" t="s">
         <v>412</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>413</v>
       </c>
       <c r="G181" s="1"/>
       <c r="P181" s="1"/>
@@ -12928,25 +12901,25 @@
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B182" s="84"/>
       <c r="C182" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B183" s="18"/>
       <c r="C183" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A184" s="86" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
@@ -12954,27 +12927,27 @@
     </row>
     <row r="185" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B185" s="18"/>
       <c r="C185" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D185" s="85"/>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B186" s="18"/>
       <c r="C186" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D186" s="85"/>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A187" s="86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
@@ -12982,158 +12955,158 @@
     </row>
     <row r="188" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A188" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B188" s="89" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C188" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A189" s="90" t="s">
+        <v>413</v>
+      </c>
+      <c r="B189" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C189" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="B189" s="91" t="s">
-        <v>417</v>
-      </c>
-      <c r="C189" s="91" t="s">
+      <c r="D189" s="92" t="s">
         <v>415</v>
-      </c>
-      <c r="D189" s="92" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B190" s="84"/>
       <c r="C190" s="89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="191" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B191" s="84"/>
       <c r="C191" s="89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="192" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B192" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C192" s="89" t="s">
         <v>396</v>
       </c>
-      <c r="C192" s="89" t="s">
-        <v>397</v>
-      </c>
       <c r="D192" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A193" s="93" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B193" s="94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C193" s="91" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D193" s="94" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A194" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="B194" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C194" s="91" t="s">
         <v>426</v>
-      </c>
-      <c r="B194" s="94" t="s">
-        <v>461</v>
-      </c>
-      <c r="C194" s="91" t="s">
-        <v>427</v>
       </c>
       <c r="D194" s="92"/>
     </row>
     <row r="195" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A195" s="93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B195" s="94" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C195" s="91" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D195" s="92"/>
     </row>
     <row r="196" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A196" s="93" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B196" s="94" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C196" s="91" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D196" s="92"/>
     </row>
     <row r="197" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A197" s="93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B197" s="91" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C197" s="91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D197" s="92"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D198" s="85"/>
     </row>
     <row r="199" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B199" s="18"/>
       <c r="C199" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D199" s="85"/>
     </row>
     <row r="200" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B200" s="18"/>
       <c r="C200" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B201" s="18"/>
       <c r="C201" s="87"/>
@@ -13141,19 +13114,19 @@
     </row>
     <row r="202" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A202" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C202" s="88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D202" s="85"/>
     </row>
     <row r="203" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
@@ -13161,19 +13134,19 @@
     </row>
     <row r="204" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B204" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C204" s="89" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D204" s="85"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -13181,19 +13154,19 @@
     </row>
     <row r="208" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B208" s="18"/>
       <c r="C208" s="88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D208" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A209" s="86" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
@@ -13201,65 +13174,65 @@
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B210" s="18"/>
       <c r="C210" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D210" s="85"/>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B211" s="18"/>
       <c r="C211" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D211" s="85" t="s">
         <v>408</v>
-      </c>
-      <c r="D211" s="85" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="212" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A212" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D212" s="85"/>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A213" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C213" s="18" t="s">
         <v>389</v>
-      </c>
-      <c r="B213" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C213" s="18" t="s">
-        <v>390</v>
       </c>
       <c r="D213" s="85"/>
     </row>
     <row r="214" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B214" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D214" s="85"/>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A215" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -13267,34 +13240,34 @@
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D217" s="18"/>
     </row>
     <row r="218" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D218" s="85"/>
     </row>
@@ -13323,10 +13296,10 @@
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>87</v>
@@ -13338,30 +13311,30 @@
     </row>
     <row r="222" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B222" s="89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C222" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="223" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A223" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B223" s="88" t="s">
+        <v>445</v>
+      </c>
+      <c r="C223" s="89" t="s">
         <v>443</v>
       </c>
-      <c r="B223" s="88" t="s">
-        <v>446</v>
-      </c>
-      <c r="C223" s="89" t="s">
+      <c r="D223" s="18" t="s">
         <v>444</v>
-      </c>
-      <c r="D223" s="18" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.35">
@@ -13372,7 +13345,7 @@
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A225" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
@@ -13380,7 +13353,7 @@
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A226" s="86" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
@@ -13388,55 +13361,55 @@
     </row>
     <row r="227" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C227" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D227" s="18"/>
     </row>
     <row r="228" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A228" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D228" s="18"/>
     </row>
     <row r="229" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C229" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D229" s="18"/>
     </row>
     <row r="230" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A230" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D230" s="18"/>
     </row>
     <row r="231" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
@@ -13444,13 +13417,13 @@
     </row>
     <row r="232" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A232" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C232" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D232" s="18"/>
     </row>
@@ -13458,7 +13431,7 @@
       <c r="A233" s="18"/>
       <c r="B233" s="18"/>
       <c r="C233" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D233" s="18"/>
     </row>
@@ -13466,7 +13439,7 @@
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
       <c r="C234" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D234" s="18"/>
     </row>
@@ -13555,7 +13528,7 @@
         <v>135</v>
       </c>
       <c r="C245" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -13570,7 +13543,7 @@
     </row>
     <row r="248" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C248" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -13583,7 +13556,7 @@
         <v>135</v>
       </c>
       <c r="C250" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -13609,7 +13582,7 @@
         <v>135</v>
       </c>
       <c r="C254" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -13634,13 +13607,16 @@
       <c r="A258" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C258" s="36" t="s">
-        <v>148</v>
+      <c r="B258" s="122" t="s">
+        <v>676</v>
+      </c>
+      <c r="C258" s="122" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -13648,12 +13624,12 @@
         <v>135</v>
       </c>
       <c r="C260" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -13661,12 +13637,12 @@
         <v>135</v>
       </c>
       <c r="C262" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -13675,12 +13651,12 @@
       </c>
       <c r="B264" s="36"/>
       <c r="C264" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -13688,12 +13664,12 @@
         <v>135</v>
       </c>
       <c r="C266" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -13701,52 +13677,52 @@
         <v>135</v>
       </c>
       <c r="C268" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C270" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C271" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="273" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C273" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="274" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B274" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C274" s="111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D274" s="36"/>
     </row>
     <row r="275" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C275" s="111" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D275" s="36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.35">
@@ -13770,7 +13746,7 @@
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C278" s="36" t="s">
         <v>87</v>
@@ -13782,198 +13758,198 @@
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A279" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="280" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B280" s="95" t="s">
+        <v>469</v>
+      </c>
+      <c r="C280" s="95" t="s">
+        <v>471</v>
+      </c>
+      <c r="D280" s="95" t="s">
         <v>470</v>
-      </c>
-      <c r="C280" s="95" t="s">
-        <v>472</v>
-      </c>
-      <c r="D280" s="95" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="281" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A281" s="95" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C281" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C282" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="C282" s="36" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C283" s="36" t="s">
         <v>172</v>
-      </c>
-      <c r="C283" s="36" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C284" s="36" t="s">
         <v>174</v>
-      </c>
-      <c r="C284" s="36" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A285" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="286" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A286" s="95" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B286" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C286" s="95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A287" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="288" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A288" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B288" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C288" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C290" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C292" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A294" s="95" t="s">
+        <v>473</v>
+      </c>
+      <c r="C294" s="95" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A295" s="95" t="s">
         <v>474</v>
       </c>
-      <c r="C294" s="95" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A295" s="95" t="s">
+      <c r="C295" s="95" t="s">
         <v>475</v>
-      </c>
-      <c r="C295" s="95" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A299" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B299" s="111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C299" s="95" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A300" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B300" s="95" t="s">
         <v>480</v>
       </c>
-      <c r="B300" s="95" t="s">
-        <v>481</v>
-      </c>
       <c r="C300" s="95" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D300" s="97" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C301" s="95" t="s">
         <v>482</v>
-      </c>
-      <c r="C301" s="95" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A302" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B302" s="95" t="s">
+        <v>490</v>
+      </c>
+      <c r="C302" s="95" t="s">
         <v>484</v>
-      </c>
-      <c r="B302" s="95" t="s">
-        <v>491</v>
-      </c>
-      <c r="C302" s="95" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A303" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C303" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -14001,10 +13977,10 @@
     </row>
     <row r="306" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C306" s="98" t="s">
         <v>496</v>
-      </c>
-      <c r="C306" s="98" t="s">
-        <v>497</v>
       </c>
       <c r="G306" s="1"/>
       <c r="P306" s="1"/>
@@ -14013,21 +13989,21 @@
     </row>
     <row r="307" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A307" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B307" s="111" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C307" s="97" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="308" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A308" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C308" s="97" t="s">
         <v>499</v>
-      </c>
-      <c r="C308" s="97" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.35">
@@ -14051,10 +14027,10 @@
     </row>
     <row r="310" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C310" s="103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G310" s="1"/>
       <c r="P310" s="1"/>
@@ -14063,133 +14039,127 @@
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A311" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B311" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C311" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D311" s="17"/>
     </row>
     <row r="312" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A312" s="33"/>
-      <c r="B312" s="116"/>
-      <c r="C312" s="126" t="s">
-        <v>504</v>
+      <c r="C312" s="97" t="s">
+        <v>503</v>
       </c>
       <c r="D312" s="19"/>
     </row>
     <row r="313" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A313" s="33"/>
-      <c r="B313" s="116"/>
-      <c r="C313" s="126" t="s">
-        <v>505</v>
+      <c r="C313" s="97" t="s">
+        <v>504</v>
       </c>
       <c r="D313" s="19"/>
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A314" s="54" t="s">
-        <v>507</v>
-      </c>
-      <c r="B314" s="116" t="s">
-        <v>275</v>
-      </c>
-      <c r="C314" s="127"/>
+        <v>506</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="D314" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="315" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A315" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="B315" s="119" t="s">
-        <v>668</v>
-      </c>
-      <c r="C315" s="119" t="s">
+        <v>513</v>
+      </c>
+      <c r="B315" s="111" t="s">
         <v>667</v>
+      </c>
+      <c r="C315" s="111" t="s">
+        <v>666</v>
       </c>
       <c r="D315" s="19"/>
     </row>
     <row r="316" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A316" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="D316" s="19"/>
+    </row>
+    <row r="317" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A317" s="121" t="s">
+        <v>516</v>
+      </c>
+      <c r="C317" s="97" t="s">
         <v>515</v>
       </c>
-      <c r="B316" s="116"/>
-      <c r="C316" s="127"/>
-      <c r="D316" s="19"/>
-    </row>
-    <row r="317" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A317" s="128" t="s">
+      <c r="D317" s="19" t="s">
         <v>517</v>
-      </c>
-      <c r="B317" s="116"/>
-      <c r="C317" s="126" t="s">
-        <v>516</v>
-      </c>
-      <c r="D317" s="19" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="318" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A318" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="B318" s="116" t="s">
-        <v>519</v>
-      </c>
-      <c r="C318" s="126"/>
+        <v>514</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C318" s="97"/>
       <c r="D318" s="19"/>
     </row>
     <row r="319" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A319" s="31"/>
-      <c r="B319" s="116" t="s">
+      <c r="B319" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C319" s="99" t="s">
         <v>520</v>
-      </c>
-      <c r="C319" s="124" t="s">
-        <v>521</v>
       </c>
       <c r="D319" s="19"/>
     </row>
     <row r="320" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A320" s="31"/>
-      <c r="B320" s="116" t="s">
-        <v>522</v>
-      </c>
-      <c r="C320" s="119" t="s">
-        <v>659</v>
+      <c r="B320" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C320" s="111" t="s">
+        <v>658</v>
       </c>
       <c r="D320" s="19"/>
     </row>
     <row r="321" spans="1:22" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="101"/>
-      <c r="B321" s="125" t="s">
-        <v>661</v>
-      </c>
-      <c r="C321" s="125" t="s">
+      <c r="B321" s="120" t="s">
         <v>660</v>
+      </c>
+      <c r="C321" s="120" t="s">
+        <v>659</v>
       </c>
       <c r="D321" s="20"/>
     </row>
     <row r="322" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A322" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C322" s="97" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="323" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C323" s="97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="325" spans="1:22" x14ac:dyDescent="0.35">
@@ -14213,10 +14183,10 @@
     </row>
     <row r="326" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C326" s="103" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G326" s="1"/>
       <c r="P326" s="1"/>
@@ -14225,185 +14195,185 @@
     </row>
     <row r="327" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A327" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C327" s="99" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="328" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A328" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="329" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C329" s="99" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="330" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A330" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="331" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C331" s="99" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A332" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="333" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C333" s="99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="334" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A334" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="335" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A335" s="2"/>
       <c r="C335" s="102" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C336" s="99" t="s">
         <v>533</v>
-      </c>
-      <c r="C336" s="99" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C337" s="102" t="s">
+        <v>553</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C337" s="102" t="s">
-        <v>554</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C338" s="99" t="s">
         <v>537</v>
-      </c>
-      <c r="C338" s="99" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C339" s="99" t="s">
         <v>539</v>
-      </c>
-      <c r="C339" s="99" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C340" s="99" t="s">
         <v>541</v>
-      </c>
-      <c r="C340" s="99" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C341" s="102" t="s">
         <v>555</v>
-      </c>
-      <c r="C341" s="102" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C342" s="99" t="s">
         <v>543</v>
-      </c>
-      <c r="C342" s="99" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C343" s="99" t="s">
         <v>545</v>
-      </c>
-      <c r="C343" s="99" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C344" s="99" t="s">
         <v>547</v>
-      </c>
-      <c r="C344" s="99" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="B346" s="111" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C346" s="111" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C347" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="C347" s="99" t="s">
-        <v>551</v>
-      </c>
       <c r="D347" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="10"/>
       <c r="B348" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C348" s="99"/>
     </row>
     <row r="349" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B349" s="111" t="s">
+        <v>668</v>
+      </c>
+      <c r="C349" s="111" t="s">
+        <v>662</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="C349" s="111" t="s">
-        <v>663</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A350" s="111" t="s">
+        <v>663</v>
+      </c>
+      <c r="B350" s="111" t="s">
         <v>664</v>
       </c>
-      <c r="B350" s="111" t="s">
+      <c r="C350" s="111" t="s">
         <v>665</v>
-      </c>
-      <c r="C350" s="111" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -14439,10 +14409,10 @@
     </row>
     <row r="356" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C356" s="103" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G356" s="1"/>
       <c r="P356" s="1"/>
@@ -14451,21 +14421,21 @@
     </row>
     <row r="357" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B357" s="112" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C357" s="1"/>
     </row>
     <row r="358" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C358" s="102" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A359" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="360" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
@@ -14473,12 +14443,12 @@
         <v>75</v>
       </c>
       <c r="C360" s="102" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="361" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A361" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="362" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
@@ -14486,12 +14456,12 @@
         <v>75</v>
       </c>
       <c r="C362" s="102" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="363" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A363" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="364" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
@@ -14499,271 +14469,266 @@
         <v>75</v>
       </c>
       <c r="C364" s="102" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="365" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A365" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B365" s="27"/>
       <c r="C365" s="114" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="366" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A366" s="115" t="s">
-        <v>571</v>
-      </c>
-      <c r="B366" s="116" t="s">
-        <v>575</v>
-      </c>
-      <c r="C366" s="117" t="s">
-        <v>573</v>
+        <v>570</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C366" s="102" t="s">
+        <v>572</v>
       </c>
       <c r="D366" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A367" s="115" t="s">
-        <v>574</v>
-      </c>
-      <c r="B367" s="116" t="s">
-        <v>638</v>
-      </c>
-      <c r="C367" s="117" t="s">
-        <v>572</v>
+        <v>573</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C367" s="102" t="s">
+        <v>571</v>
       </c>
       <c r="D367" s="19"/>
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A368" s="54" t="s">
-        <v>650</v>
-      </c>
-      <c r="B368" s="116"/>
-      <c r="C368" s="117"/>
+        <v>649</v>
+      </c>
+      <c r="C368" s="102"/>
       <c r="D368" s="19"/>
     </row>
     <row r="369" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A369" s="118" t="s">
+      <c r="A369" s="116" t="s">
+        <v>635</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C369" s="111" t="s">
         <v>636</v>
-      </c>
-      <c r="B369" s="116" t="s">
-        <v>630</v>
-      </c>
-      <c r="C369" s="119" t="s">
-        <v>637</v>
       </c>
       <c r="D369" s="19"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="C370" s="111"/>
+      <c r="D370" s="19"/>
+    </row>
+    <row r="371" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A371" s="116" t="s">
+        <v>645</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C371" s="111" t="s">
+        <v>630</v>
+      </c>
+      <c r="D371" s="19"/>
+    </row>
+    <row r="372" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A372" s="116" t="s">
+        <v>632</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C372" s="102" t="s">
+        <v>579</v>
+      </c>
+      <c r="D372" s="19"/>
+    </row>
+    <row r="373" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A373" s="117" t="s">
+        <v>656</v>
+      </c>
+      <c r="C373" s="113" t="s">
+        <v>657</v>
+      </c>
+      <c r="D373" s="19"/>
+    </row>
+    <row r="374" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A374" s="116" t="s">
+        <v>643</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C374" s="111" t="s">
+        <v>634</v>
+      </c>
+      <c r="D374" s="19"/>
+    </row>
+    <row r="375" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A375" s="117" t="s">
         <v>651</v>
       </c>
-      <c r="B370" s="116"/>
-      <c r="C370" s="119"/>
-      <c r="D370" s="19"/>
-    </row>
-    <row r="371" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A371" s="118" t="s">
-        <v>646</v>
-      </c>
-      <c r="B371" s="116" t="s">
-        <v>648</v>
-      </c>
-      <c r="C371" s="119" t="s">
-        <v>631</v>
-      </c>
-      <c r="D371" s="19"/>
-    </row>
-    <row r="372" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A372" s="118" t="s">
-        <v>633</v>
-      </c>
-      <c r="B372" s="116" t="s">
+      <c r="C375" s="111"/>
+      <c r="D375" s="19"/>
+    </row>
+    <row r="376" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A376" s="116" t="s">
         <v>638</v>
       </c>
-      <c r="C372" s="117" t="s">
-        <v>580</v>
-      </c>
-      <c r="D372" s="19"/>
-    </row>
-    <row r="373" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A373" s="120" t="s">
-        <v>657</v>
-      </c>
-      <c r="B373" s="116"/>
-      <c r="C373" s="123" t="s">
-        <v>658</v>
-      </c>
-      <c r="D373" s="19"/>
-    </row>
-    <row r="374" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A374" s="118" t="s">
+      <c r="B376" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C376" s="111" t="s">
+        <v>642</v>
+      </c>
+      <c r="D376" s="19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A377" s="116" t="s">
         <v>644</v>
       </c>
-      <c r="B374" s="116" t="s">
-        <v>647</v>
-      </c>
-      <c r="C374" s="119" t="s">
-        <v>635</v>
-      </c>
-      <c r="D374" s="19"/>
-    </row>
-    <row r="375" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A375" s="120" t="s">
+      <c r="B377" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C377" s="111" t="s">
+        <v>641</v>
+      </c>
+      <c r="D377" s="118" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A378" s="117" t="s">
         <v>652</v>
       </c>
-      <c r="B375" s="116"/>
-      <c r="C375" s="119"/>
-      <c r="D375" s="19"/>
-    </row>
-    <row r="376" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A376" s="118" t="s">
-        <v>639</v>
-      </c>
-      <c r="B376" s="116" t="s">
-        <v>638</v>
-      </c>
-      <c r="C376" s="119" t="s">
-        <v>643</v>
-      </c>
-      <c r="D376" s="19" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A377" s="118" t="s">
-        <v>645</v>
-      </c>
-      <c r="B377" s="116" t="s">
-        <v>638</v>
-      </c>
-      <c r="C377" s="119" t="s">
-        <v>642</v>
-      </c>
-      <c r="D377" s="121" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A378" s="120" t="s">
+      <c r="C378" s="111" t="s">
         <v>653</v>
-      </c>
-      <c r="B378" s="116"/>
-      <c r="C378" s="119" t="s">
-        <v>654</v>
       </c>
       <c r="D378" s="19"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="115" t="s">
+        <v>575</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C379" s="102" t="s">
         <v>576</v>
       </c>
-      <c r="B379" s="116" t="s">
-        <v>630</v>
-      </c>
-      <c r="C379" s="117" t="s">
+      <c r="D379" s="19"/>
+    </row>
+    <row r="380" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A380" s="116" t="s">
+        <v>631</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C380" s="102" t="s">
         <v>577</v>
       </c>
-      <c r="D379" s="19"/>
-    </row>
-    <row r="380" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A380" s="118" t="s">
-        <v>632</v>
-      </c>
-      <c r="B380" s="116" t="s">
-        <v>638</v>
-      </c>
-      <c r="C380" s="117" t="s">
+      <c r="D380" s="19" t="s">
         <v>578</v>
-      </c>
-      <c r="D380" s="19" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="B381" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="C381" s="119" t="s">
         <v>581</v>
-      </c>
-      <c r="B381" s="34" t="s">
-        <v>638</v>
-      </c>
-      <c r="C381" s="122" t="s">
-        <v>582</v>
       </c>
       <c r="D381" s="20"/>
     </row>
     <row r="382" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A382" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="B382" s="112" t="s">
         <v>616</v>
       </c>
-      <c r="B382" s="112" t="s">
+      <c r="C382" s="113" t="s">
         <v>617</v>
-      </c>
-      <c r="C382" s="113" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C383" s="111" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C384" s="111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="385" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C385" s="111" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A386" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C386" s="111"/>
     </row>
     <row r="387" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C387" s="111" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="388" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A388" s="10"/>
       <c r="B388" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="389" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C389" s="111" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="390" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B390" s="111" t="s">
+        <v>627</v>
+      </c>
+      <c r="C390" s="111" t="s">
         <v>626</v>
-      </c>
-      <c r="B390" s="111" t="s">
-        <v>628</v>
-      </c>
-      <c r="C390" s="111" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.35">
@@ -14787,16 +14752,16 @@
     </row>
     <row r="393" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C393" s="104" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G393" s="1"/>
       <c r="P393" s="1"/>
@@ -14805,76 +14770,76 @@
     </row>
     <row r="394" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C394" s="102" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="395" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C395" s="102" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="396" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C396" s="102" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="397" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C397" s="102" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="398" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A398" s="105" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C398" s="111" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="399" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A399" s="105" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C399" s="111" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="400" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A400" s="105" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B400" s="105" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C400" s="111" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A401" s="105" t="s">
+        <v>595</v>
+      </c>
+      <c r="C401" s="111" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A402" s="105" t="s">
         <v>596</v>
       </c>
-      <c r="C401" s="111" t="s">
+      <c r="C402" s="111" t="s">
         <v>674</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A402" s="105" t="s">
-        <v>597</v>
-      </c>
-      <c r="C402" s="111" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="106" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B403" s="27"/>
       <c r="C403" s="107"/>
@@ -14882,56 +14847,56 @@
     </row>
     <row r="404" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A404" s="109" t="s">
+        <v>599</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B404" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="C404" s="105" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D404" s="19"/>
     </row>
     <row r="405" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A405" s="110" t="s">
+        <v>603</v>
+      </c>
+      <c r="B405" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="C405" s="108" t="s">
         <v>604</v>
-      </c>
-      <c r="B405" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="C405" s="108" t="s">
-        <v>605</v>
       </c>
       <c r="D405" s="20"/>
     </row>
     <row r="406" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A406" s="106" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B406" s="27"/>
       <c r="C406" s="107" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D406" s="17"/>
     </row>
     <row r="407" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A407" s="33"/>
       <c r="C407" s="105" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D407" s="19"/>
     </row>
     <row r="408" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A408" s="33"/>
       <c r="C408" s="105" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D408" s="19"/>
     </row>
     <row r="409" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A409" s="33"/>
       <c r="C409" s="105" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D409" s="19"/>
     </row>
@@ -14939,12 +14904,12 @@
       <c r="A410" s="38"/>
       <c r="B410" s="34"/>
       <c r="C410" s="108" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D410" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_7_Программист_Контейнеризация.xlsx
+++ b/2 четверть_7_Программист_Контейнеризация.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B7AFA-29EA-471F-AAD7-DA9D715891FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E146A-6197-4534-AC80-A21A10D56633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="679">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -6308,107 +6308,6 @@
   </si>
   <si>
     <t>restart</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Позволяет определить политику перезапуска контейнера
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 restart: no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - не перезапускать контейнер автоматически
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 restart: on failure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - при невозможности перезапуску, контейнер будет снова перезапущен вплоть до того количества попыток, которое будет указано в параметре failure
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3 restart: always</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - всегда перезапускает контейнер, если он был остановлен (нужно быть аккуратным, так как с данным параметром может быть зацикленный перезапуск контейнера с различными проблемами)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4 restart: unless stopped </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- всегда будет перезапускать контейнер (поход на always, за исключением того, что если контейнер был остановлен вручную, то он не будет перезапущен docker-compose)</t>
-    </r>
   </si>
   <si>
     <t>Теория</t>
@@ -8438,30 +8337,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Очень важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Когда мы запускаем yml файл, то автоматически (по умолчанию) срабатывает команда --link, которая связывает все запускаемые контейнеры. Это сделано потому, что по логике любой yml файл предполагает запуск не чужых в отношении друг друга контейнеров, а наоборот - поэтому сразу уже по умолчанию указан --link</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Вывод - очень важно!</t>
     </r>
     <r>
@@ -8689,18 +8564,197 @@
 COPY &lt;путь откуда копируем&gt; &lt;путь куда копируем&gt;
 COPY ./java ./src</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Когда мы запускаем yml файл, то автоматически (по умолчанию) срабатывает команда --link, которая связывает все запускаемые контейнеры. Это сделано потому, что по логике любой yml файл предполагает запуск не чужих в отношении друг друга контейнеров, а наоборот - поэтому сразу уже по умолчанию указан --link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Позволяет определить политику перезапуска контейнера
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 restart: no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - не перезапускать контейнер автоматически
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 restart: on failure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - при невозможности перезапуску, контейнер будет снова перезапущен вплоть до того количества попыток, которое будет указано в параметре failure
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 restart: always</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - всегда перезапускает контейнер, если он был остановлен (нужно быть аккуратным, так как с данным параметром может быть зацикленный перезапуск контейнера с различными проблемами)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 restart: unless stopped </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- всегда будет перезапускать контейнер (похож на always, за исключением того, что если контейнер был остановлен вручную, то он не будет перезапущен docker-compose)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wildfly:
+  build: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/path/to/dir/Dockerfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  container_name: wildfly_server
+  ports:
+   - 9990:9990
+   - 80:8080
+  environment:
+   - MYSQL_HOST=mysql_server
+   - MONGO_HOST=mongo_server
+   - ELASTIC_HOST=elasticsearch_server
+  volumes:
+   - /Volumes/CaseSensitive/development/wildfly/deployments/:/opt/jboss/wildfly/standalone/deployments/
+  links:
+   - mysql:mysql_server
+   - mongo:mongo_server
+   - elasticsearch:elasticsearch_server</t>
+    </r>
+  </si>
+  <si>
+    <t>Случай создания контейнера из собственного образа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9174,7 +9228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9185,20 +9239,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9234,10 +9288,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9255,10 +9309,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9276,22 +9330,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9306,7 +9360,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9315,7 +9369,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9324,7 +9378,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9336,10 +9390,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9357,7 +9411,64 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9366,64 +9477,7 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -9432,19 +9486,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9453,91 +9507,100 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11150,8 +11213,8 @@
   </sheetPr>
   <dimension ref="A2:V410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B258" sqref="B258"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13608,10 +13671,10 @@
         <v>135</v>
       </c>
       <c r="B258" s="122" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C258" s="122" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
@@ -13713,13 +13776,13 @@
         <v>492</v>
       </c>
       <c r="C274" s="111" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D274" s="36"/>
     </row>
     <row r="275" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C275" s="111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D275" s="36" t="s">
         <v>491</v>
@@ -13887,7 +13950,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A295" s="95" t="s">
         <v>474</v>
       </c>
@@ -13905,7 +13968,7 @@
         <v>478</v>
       </c>
       <c r="B299" s="111" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C299" s="95" t="s">
         <v>477</v>
@@ -13992,7 +14055,7 @@
         <v>497</v>
       </c>
       <c r="B307" s="111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C307" s="97" t="s">
         <v>500</v>
@@ -14030,7 +14093,7 @@
         <v>501</v>
       </c>
       <c r="C310" s="103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G310" s="1"/>
       <c r="P310" s="1"/>
@@ -14078,11 +14141,11 @@
       <c r="A315" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="B315" s="111" t="s">
-        <v>667</v>
+      <c r="B315" s="123" t="s">
+        <v>675</v>
       </c>
       <c r="C315" s="111" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D315" s="19"/>
     </row>
@@ -14128,18 +14191,18 @@
       <c r="B320" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C320" s="111" t="s">
-        <v>658</v>
+      <c r="C320" s="123" t="s">
+        <v>657</v>
       </c>
       <c r="D320" s="19"/>
     </row>
     <row r="321" spans="1:22" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="101"/>
-      <c r="B321" s="120" t="s">
-        <v>660</v>
+      <c r="B321" s="124" t="s">
+        <v>659</v>
       </c>
       <c r="C321" s="120" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D321" s="20"/>
     </row>
@@ -14186,7 +14249,7 @@
         <v>522</v>
       </c>
       <c r="C326" s="103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G326" s="1"/>
       <c r="P326" s="1"/>
@@ -14242,7 +14305,7 @@
     <row r="335" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A335" s="2"/>
       <c r="C335" s="102" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.35">
@@ -14258,10 +14321,10 @@
         <v>534</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C337" s="102" t="s">
         <v>552</v>
-      </c>
-      <c r="C337" s="102" t="s">
-        <v>553</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>535</v>
@@ -14293,10 +14356,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C341" s="102" t="s">
         <v>554</v>
-      </c>
-      <c r="C341" s="102" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -14325,23 +14388,23 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="B346" s="111" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C346" s="111" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C347" s="99" t="s">
-        <v>550</v>
+      <c r="C347" s="123" t="s">
+        <v>676</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>420</v>
@@ -14350,34 +14413,39 @@
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="10"/>
       <c r="B348" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C348" s="99"/>
     </row>
     <row r="349" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B349" s="111" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C349" s="111" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A350" s="111" t="s">
+        <v>662</v>
+      </c>
+      <c r="B350" s="111" t="s">
         <v>663</v>
       </c>
-      <c r="B350" s="111" t="s">
+      <c r="C350" s="111" t="s">
         <v>664</v>
       </c>
-      <c r="C350" s="111" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C351" s="99"/>
+    </row>
+    <row r="351" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+      <c r="A351" s="125" t="s">
+        <v>678</v>
+      </c>
+      <c r="C351" s="123" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C352" s="99"/>
@@ -14409,7 +14477,7 @@
     </row>
     <row r="356" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C356" s="103" t="s">
         <v>498</v>
@@ -14421,21 +14489,21 @@
     </row>
     <row r="357" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B357" s="112" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C357" s="1"/>
     </row>
     <row r="358" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C358" s="102" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A359" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="360" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
@@ -14443,12 +14511,12 @@
         <v>75</v>
       </c>
       <c r="C360" s="102" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="361" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A361" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="362" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
@@ -14456,12 +14524,12 @@
         <v>75</v>
       </c>
       <c r="C362" s="102" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="363" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A363" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="364" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
@@ -14469,266 +14537,266 @@
         <v>75</v>
       </c>
       <c r="C364" s="102" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="365" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A365" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B365" s="27"/>
       <c r="C365" s="114" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="366" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A366" s="115" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C366" s="102" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D366" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A367" s="115" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C367" s="102" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D367" s="19"/>
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A368" s="54" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C368" s="102"/>
       <c r="D368" s="19"/>
     </row>
     <row r="369" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A369" s="116" t="s">
+        <v>634</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C369" s="111" t="s">
         <v>635</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C369" s="111" t="s">
-        <v>636</v>
       </c>
       <c r="D369" s="19"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="54" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C370" s="111"/>
       <c r="D370" s="19"/>
     </row>
     <row r="371" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A371" s="116" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C371" s="111" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D371" s="19"/>
     </row>
     <row r="372" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A372" s="116" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C372" s="102" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D372" s="19"/>
     </row>
     <row r="373" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A373" s="117" t="s">
+        <v>655</v>
+      </c>
+      <c r="C373" s="113" t="s">
         <v>656</v>
-      </c>
-      <c r="C373" s="113" t="s">
-        <v>657</v>
       </c>
       <c r="D373" s="19"/>
     </row>
     <row r="374" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A374" s="116" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C374" s="111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D374" s="19"/>
     </row>
     <row r="375" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A375" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C375" s="111"/>
       <c r="D375" s="19"/>
     </row>
     <row r="376" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A376" s="116" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C376" s="111" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D376" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A377" s="116" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C377" s="111" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D377" s="118" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="117" t="s">
+        <v>651</v>
+      </c>
+      <c r="C378" s="111" t="s">
         <v>652</v>
-      </c>
-      <c r="C378" s="111" t="s">
-        <v>653</v>
       </c>
       <c r="D378" s="19"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="115" t="s">
+        <v>574</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C379" s="102" t="s">
         <v>575</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C379" s="102" t="s">
-        <v>576</v>
       </c>
       <c r="D379" s="19"/>
     </row>
     <row r="380" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A380" s="116" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C380" s="102" t="s">
+        <v>576</v>
+      </c>
+      <c r="D380" s="19" t="s">
         <v>577</v>
-      </c>
-      <c r="D380" s="19" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="B381" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="C381" s="119" t="s">
         <v>580</v>
-      </c>
-      <c r="B381" s="34" t="s">
-        <v>637</v>
-      </c>
-      <c r="C381" s="119" t="s">
-        <v>581</v>
       </c>
       <c r="D381" s="20"/>
     </row>
     <row r="382" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A382" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="B382" s="112" t="s">
         <v>615</v>
       </c>
-      <c r="B382" s="112" t="s">
+      <c r="C382" s="113" t="s">
         <v>616</v>
-      </c>
-      <c r="C382" s="113" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C383" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C384" s="111" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="385" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C385" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A386" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C386" s="111"/>
     </row>
     <row r="387" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C387" s="111" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="388" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A388" s="10"/>
       <c r="B388" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="389" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C389" s="111" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="390" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B390" s="111" t="s">
+        <v>626</v>
+      </c>
+      <c r="C390" s="111" t="s">
         <v>625</v>
-      </c>
-      <c r="B390" s="111" t="s">
-        <v>627</v>
-      </c>
-      <c r="C390" s="111" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.35">
@@ -14752,16 +14820,16 @@
     </row>
     <row r="393" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C393" s="104" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G393" s="1"/>
       <c r="P393" s="1"/>
@@ -14770,76 +14838,76 @@
     </row>
     <row r="394" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C394" s="102" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="395" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C395" s="102" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="396" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C396" s="102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="397" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C397" s="102" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="398" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A398" s="105" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C398" s="111" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="399" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A399" s="105" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C399" s="111" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="400" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A400" s="105" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B400" s="105" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C400" s="111" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A401" s="105" t="s">
+        <v>594</v>
+      </c>
+      <c r="C401" s="111" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A402" s="105" t="s">
         <v>595</v>
       </c>
-      <c r="C401" s="111" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A402" s="105" t="s">
-        <v>596</v>
-      </c>
       <c r="C402" s="111" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="106" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B403" s="27"/>
       <c r="C403" s="107"/>
@@ -14847,56 +14915,56 @@
     </row>
     <row r="404" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A404" s="109" t="s">
+        <v>598</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B404" s="2" t="s">
-        <v>600</v>
-      </c>
       <c r="C404" s="105" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D404" s="19"/>
     </row>
     <row r="405" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A405" s="110" t="s">
+        <v>602</v>
+      </c>
+      <c r="B405" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="C405" s="108" t="s">
         <v>603</v>
-      </c>
-      <c r="B405" s="34" t="s">
-        <v>601</v>
-      </c>
-      <c r="C405" s="108" t="s">
-        <v>604</v>
       </c>
       <c r="D405" s="20"/>
     </row>
     <row r="406" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A406" s="106" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B406" s="27"/>
       <c r="C406" s="107" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D406" s="17"/>
     </row>
     <row r="407" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A407" s="33"/>
       <c r="C407" s="105" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D407" s="19"/>
     </row>
     <row r="408" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A408" s="33"/>
       <c r="C408" s="105" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D408" s="19"/>
     </row>
     <row r="409" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A409" s="33"/>
       <c r="C409" s="105" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D409" s="19"/>
     </row>
@@ -14904,12 +14972,12 @@
       <c r="A410" s="38"/>
       <c r="B410" s="34"/>
       <c r="C410" s="108" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D410" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_7_Программист_Контейнеризация.xlsx
+++ b/2 четверть_7_Программист_Контейнеризация.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E146A-6197-4534-AC80-A21A10D56633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1433AAB-9ADC-4082-A962-853F0AE8AA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="691">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -8736,17 +8736,62 @@
   <si>
     <t>Случай создания контейнера из собственного образа</t>
   </si>
+  <si>
+    <t>Семинар 4 - Станислав</t>
+  </si>
+  <si>
+    <t>Docker в Idea</t>
+  </si>
+  <si>
+    <t>00 17 30</t>
+  </si>
+  <si>
+    <t>Шаг 1 Установить программу docker for windows</t>
+  </si>
+  <si>
+    <t>Шаг 2 Установить plugin docke в idea</t>
+  </si>
+  <si>
+    <t>Шаг 3 Связать docker в idea c docker for windows</t>
+  </si>
+  <si>
+    <t>Шаг 4 В Services открыть docker и указать название образа, который необходимо pull</t>
+  </si>
+  <si>
+    <t>Шаг 5 В images, правой кнопкой мыши можно отобразить меню для создания контейнера</t>
+  </si>
+  <si>
+    <t>Шаг 6 В меню создания контейнера мы можем выбрать опции создания контейнера. По результату будет создан конфигурационный файл, который будет доступен к запуску строго только из idea</t>
+  </si>
+  <si>
+    <t>Шаг 7 После определения всех опций контейнера будет создан config.xml в папке config проекта/программы. Этот файл можно будет запускать, когда понадобится развернуть базу данных.</t>
+  </si>
+  <si>
+    <t>Готовый пример настройки контейнера с базой данных MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если использовать опцию bind (volumes), то можно будет в будущем удалять контейнер с базой данных, так как сами данные у нас останутся в хостовой машине в виде файла .ibd
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9228,7 +9273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9239,20 +9284,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9288,10 +9333,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9309,10 +9354,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9330,22 +9375,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9360,7 +9405,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9369,7 +9414,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9378,7 +9423,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9390,10 +9435,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9411,7 +9456,64 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9420,64 +9522,7 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -9486,19 +9531,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9507,100 +9552,109 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10942,6 +10996,314 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>141942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3563472</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>897890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CA801A-D1B3-43AE-A83D-F3A34FA2C219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11579413" y="239536942"/>
+          <a:ext cx="3429000" cy="755948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128359</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>52293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2164309</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>1120588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011A889E-EFAF-496D-8CAD-04CC125EC35D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11573300" y="240739705"/>
+          <a:ext cx="2035950" cy="1068295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99155</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>150653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3446382</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>649941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1486DB8-FB67-47CF-BA3D-4466265690B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544096" y="242130477"/>
+          <a:ext cx="3347227" cy="499288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>588817</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>85706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2167882</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>926353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F782725-02C4-45D7-BF44-85881F3C23C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12033758" y="243357941"/>
+          <a:ext cx="1579065" cy="840647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467930</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>186227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2110205</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>993588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Рисунок 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE53BFD1-0D4F-4896-AB95-04DBF793B273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11912871" y="244750874"/>
+          <a:ext cx="1642275" cy="807361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933823</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>237349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2913530</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>1486646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Рисунок 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0CE4DF-A6F0-4895-A40E-4674C4814584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12378764" y="247573584"/>
+          <a:ext cx="1979707" cy="1249297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242453</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>611227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4256518</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>1583765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Рисунок 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6744B664-66F9-466C-86CA-5B4433B53798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6711982" y="247947462"/>
+          <a:ext cx="4014065" cy="972538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11211,10 +11573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V410"/>
+  <dimension ref="A2:V423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C344" sqref="C344"/>
+    <sheetView tabSelected="1" topLeftCell="A420" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D422" sqref="D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14889,7 +15251,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A401" s="105" t="s">
         <v>594</v>
       </c>
@@ -14897,7 +15259,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A402" s="105" t="s">
         <v>595</v>
       </c>
@@ -14905,7 +15267,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403" s="106" t="s">
         <v>597</v>
       </c>
@@ -14913,7 +15275,7 @@
       <c r="C403" s="107"/>
       <c r="D403" s="17"/>
     </row>
-    <row r="404" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A404" s="109" t="s">
         <v>598</v>
       </c>
@@ -14925,7 +15287,7 @@
       </c>
       <c r="D404" s="19"/>
     </row>
-    <row r="405" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:21" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A405" s="110" t="s">
         <v>602</v>
       </c>
@@ -14937,7 +15299,7 @@
       </c>
       <c r="D405" s="20"/>
     </row>
-    <row r="406" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:21" ht="145" x14ac:dyDescent="0.35">
       <c r="A406" s="106" t="s">
         <v>609</v>
       </c>
@@ -14947,28 +15309,28 @@
       </c>
       <c r="D406" s="17"/>
     </row>
-    <row r="407" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A407" s="33"/>
       <c r="C407" s="105" t="s">
         <v>606</v>
       </c>
       <c r="D407" s="19"/>
     </row>
-    <row r="408" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:21" ht="87" x14ac:dyDescent="0.35">
       <c r="A408" s="33"/>
       <c r="C408" s="105" t="s">
         <v>605</v>
       </c>
       <c r="D408" s="19"/>
     </row>
-    <row r="409" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A409" s="33"/>
       <c r="C409" s="105" t="s">
         <v>607</v>
       </c>
       <c r="D409" s="19"/>
     </row>
-    <row r="410" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:21" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A410" s="38"/>
       <c r="B410" s="34"/>
       <c r="C410" s="108" t="s">
@@ -14976,8 +15338,100 @@
       </c>
       <c r="D410" s="20"/>
     </row>
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A414" s="3"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="128"/>
+      <c r="D414" s="3"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="3"/>
+      <c r="I414" s="3"/>
+      <c r="K414" s="3"/>
+      <c r="L414" s="3"/>
+      <c r="M414" s="3"/>
+      <c r="N414" s="3"/>
+      <c r="P414" s="5"/>
+      <c r="Q414" s="5"/>
+      <c r="R414" s="5"/>
+      <c r="S414" s="5"/>
+      <c r="U414" s="5"/>
+    </row>
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A415" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B415" s="126"/>
+      <c r="C415" s="127" t="s">
+        <v>680</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A416" s="126" t="s">
+        <v>682</v>
+      </c>
+      <c r="B416" s="126"/>
+      <c r="C416" s="1"/>
+    </row>
+    <row r="417" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A417" s="126" t="s">
+        <v>683</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A418" s="126" t="s">
+        <v>684</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A419" s="126" t="s">
+        <v>685</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A420" s="126" t="s">
+        <v>686</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A421" s="126" t="s">
+        <v>687</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A422" s="126" t="s">
+        <v>688</v>
+      </c>
+      <c r="C422" s="126"/>
+    </row>
+    <row r="423" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A423" s="127" t="s">
+        <v>689</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_7_Программист_Контейнеризация.xlsx
+++ b/2 четверть_7_Программист_Контейнеризация.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1433AAB-9ADC-4082-A962-853F0AE8AA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840EDAE5-2E74-4291-85B4-1F235BD4C12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="692">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -8773,17 +8773,121 @@
     <t xml:space="preserve">Если использовать опцию bind (volumes), то можно будет в будущем удалять контейнер с базой данных, так как сами данные у нас останутся в хостовой машине в виде файла .ibd
 </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Docker Compose, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>depends_on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field is used to express the dependencies between the services of an application and specify the order in which these services should be started and stopped.
+services:
+  parser:
+    build:
+      context: .
+      dockerfile: ./ParserSql/Dockerfile
+    container_name: parser_container
+    networks:
+      supernetwork:
+        ipv4_address: 172.20.0.5
+  bot:
+    build:
+      context: .
+      dockerfile: ./BotSqlJava/Dockerfile
+    container_name: bot_container
+    networks:
+      supernetwork:
+        ipv4_address: 172.20.0.6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    depends_on:
+      - postgres </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#указывает имя другого сервиса</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9273,7 +9377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9284,20 +9388,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9333,10 +9437,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9354,10 +9458,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9375,22 +9479,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9405,7 +9509,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9414,7 +9518,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9423,7 +9527,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9435,10 +9539,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9456,7 +9560,64 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9465,64 +9626,7 @@
     <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -9531,19 +9635,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9552,109 +9656,112 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11575,8 +11682,8 @@
   </sheetPr>
   <dimension ref="A2:V423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D422" sqref="D422"/>
+    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14032,10 +14139,10 @@
       <c r="A258" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B258" s="122" t="s">
+      <c r="B258" s="121" t="s">
         <v>674</v>
       </c>
-      <c r="C258" s="122" t="s">
+      <c r="C258" s="121" t="s">
         <v>673</v>
       </c>
     </row>
@@ -14503,7 +14610,7 @@
       <c r="A315" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="B315" s="123" t="s">
+      <c r="B315" s="122" t="s">
         <v>675</v>
       </c>
       <c r="C315" s="111" t="s">
@@ -14518,7 +14625,7 @@
       <c r="D316" s="19"/>
     </row>
     <row r="317" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A317" s="121" t="s">
+      <c r="A317" s="120" t="s">
         <v>516</v>
       </c>
       <c r="C317" s="97" t="s">
@@ -14553,17 +14660,17 @@
       <c r="B320" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C320" s="123" t="s">
+      <c r="C320" s="122" t="s">
         <v>657</v>
       </c>
       <c r="D320" s="19"/>
     </row>
     <row r="321" spans="1:22" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="101"/>
-      <c r="B321" s="124" t="s">
+      <c r="B321" s="123" t="s">
         <v>659</v>
       </c>
-      <c r="C321" s="120" t="s">
+      <c r="C321" s="128" t="s">
         <v>658</v>
       </c>
       <c r="D321" s="20"/>
@@ -14753,19 +14860,22 @@
         <v>550</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="B346" s="111" t="s">
         <v>660</v>
       </c>
       <c r="C346" s="111" t="s">
         <v>658</v>
+      </c>
+      <c r="D346" s="129" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C347" s="123" t="s">
+      <c r="C347" s="122" t="s">
         <v>676</v>
       </c>
       <c r="D347" s="1" t="s">
@@ -14797,15 +14907,15 @@
       <c r="B350" s="111" t="s">
         <v>663</v>
       </c>
-      <c r="C350" s="111" t="s">
+      <c r="C350" s="129" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="261" x14ac:dyDescent="0.35">
-      <c r="A351" s="125" t="s">
+      <c r="A351" s="124" t="s">
         <v>678</v>
       </c>
-      <c r="C351" s="123" t="s">
+      <c r="C351" s="129" t="s">
         <v>677</v>
       </c>
     </row>
@@ -15341,7 +15451,7 @@
     <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A414" s="3"/>
       <c r="B414" s="5"/>
-      <c r="C414" s="128"/>
+      <c r="C414" s="127"/>
       <c r="D414" s="3"/>
       <c r="F414" s="3"/>
       <c r="G414" s="5"/>
@@ -15361,8 +15471,8 @@
       <c r="A415" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B415" s="126"/>
-      <c r="C415" s="127" t="s">
+      <c r="B415" s="125"/>
+      <c r="C415" s="126" t="s">
         <v>680</v>
       </c>
       <c r="D415" s="1" t="s">
@@ -15370,14 +15480,14 @@
       </c>
     </row>
     <row r="416" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A416" s="126" t="s">
+      <c r="A416" s="125" t="s">
         <v>682</v>
       </c>
-      <c r="B416" s="126"/>
+      <c r="B416" s="125"/>
       <c r="C416" s="1"/>
     </row>
     <row r="417" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A417" s="126" t="s">
+      <c r="A417" s="125" t="s">
         <v>683</v>
       </c>
       <c r="C417" s="2" t="s">
@@ -15385,7 +15495,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A418" s="126" t="s">
+      <c r="A418" s="125" t="s">
         <v>684</v>
       </c>
       <c r="C418" s="2" t="s">
@@ -15393,7 +15503,7 @@
       </c>
     </row>
     <row r="419" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A419" s="126" t="s">
+      <c r="A419" s="125" t="s">
         <v>685</v>
       </c>
       <c r="C419" s="2" t="s">
@@ -15401,7 +15511,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A420" s="126" t="s">
+      <c r="A420" s="125" t="s">
         <v>686</v>
       </c>
       <c r="C420" s="2" t="s">
@@ -15409,7 +15519,7 @@
       </c>
     </row>
     <row r="421" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A421" s="126" t="s">
+      <c r="A421" s="125" t="s">
         <v>687</v>
       </c>
       <c r="C421" s="2" t="s">
@@ -15417,13 +15527,13 @@
       </c>
     </row>
     <row r="422" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A422" s="126" t="s">
+      <c r="A422" s="125" t="s">
         <v>688</v>
       </c>
-      <c r="C422" s="126"/>
+      <c r="C422" s="125"/>
     </row>
     <row r="423" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A423" s="127" t="s">
+      <c r="A423" s="126" t="s">
         <v>689</v>
       </c>
       <c r="C423" s="2" t="s">
@@ -15431,7 +15541,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_7_Программист_Контейнеризация.xlsx
+++ b/2 четверть_7_Программист_Контейнеризация.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840EDAE5-2E74-4291-85B4-1F235BD4C12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BF9528-4A96-4E09-84DD-C96486C56342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="693">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -8869,17 +8869,28 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>docker run -v $(cd ../ProcurementsDB/; pwd):/ProcurementsDB/ python-bot-sql</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9388,20 +9399,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9437,10 +9448,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9458,10 +9469,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9479,22 +9490,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9509,7 +9520,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9518,7 +9529,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9527,7 +9538,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9539,10 +9550,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9560,7 +9571,64 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9569,64 +9637,7 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -9635,19 +9646,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9656,112 +9667,112 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11682,8 +11693,8 @@
   </sheetPr>
   <dimension ref="A2:V423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D350" sqref="D350"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13309,7 +13320,9 @@
       <c r="A169" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B169" s="18"/>
+      <c r="B169" s="18" t="s">
+        <v>692</v>
+      </c>
       <c r="C169" s="18" t="s">
         <v>353</v>
       </c>
@@ -15541,7 +15554,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
